--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1602296.192308755</v>
+        <v>1601541.399325633</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2896994.290843037</v>
+        <v>2896994.290843035</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736548</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="S8" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1227,52 +1227,52 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I9" t="n">
+      <c r="U9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="S9" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172.4360488264969</v>
+        <v>287.4621822983377</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>266.4548033005474</v>
       </c>
       <c r="E11" t="n">
-        <v>288.196940870453</v>
+        <v>208.0591371058317</v>
       </c>
       <c r="F11" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G11" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4059562765828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94631158407877</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>230.9685595385168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>256.2686590164737</v>
       </c>
       <c r="X11" t="n">
         <v>275.5689172492204</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I12" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882282</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>53.01713980218872</v>
       </c>
       <c r="I13" t="n">
-        <v>32.94647717468524</v>
+        <v>32.94647717468525</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65991636537675</v>
+        <v>34.65991636537674</v>
       </c>
       <c r="S13" t="n">
         <v>104.7746029199932</v>
@@ -1607,25 +1607,25 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.4734992560194</v>
       </c>
       <c r="D14" t="n">
-        <v>95.43171432180418</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E14" t="n">
-        <v>288.196940870453</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G14" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>221.4059562765828</v>
       </c>
       <c r="I14" t="n">
-        <v>47.94631158407879</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.59762315252743</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T14" t="n">
         <v>117.1465288645458</v>
@@ -1664,16 +1664,16 @@
         <v>149.6530179828525</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>254.4138556351223</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5689172492204</v>
+        <v>275.5689172492203</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.07889317303477</v>
+        <v>79.07889317303476</v>
       </c>
       <c r="C16" t="n">
-        <v>65.27888801843525</v>
+        <v>65.27888801843524</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90025241601364</v>
+        <v>48.90025241601363</v>
       </c>
       <c r="E16" t="n">
-        <v>47.84800227179309</v>
+        <v>47.84800227179308</v>
       </c>
       <c r="F16" t="n">
-        <v>48.3149265999794</v>
+        <v>48.31492659997939</v>
       </c>
       <c r="G16" t="n">
-        <v>64.3510871070111</v>
+        <v>64.35108710701108</v>
       </c>
       <c r="H16" t="n">
-        <v>53.01713980218869</v>
+        <v>53.01713980218868</v>
       </c>
       <c r="I16" t="n">
-        <v>32.94647717468524</v>
+        <v>32.94647717468523</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537673</v>
       </c>
       <c r="S16" t="n">
         <v>104.7746029199931</v>
@@ -1822,7 +1822,7 @@
         <v>181.6644038977817</v>
       </c>
       <c r="V16" t="n">
-        <v>155.4870295726604</v>
+        <v>155.4870295726603</v>
       </c>
       <c r="W16" t="n">
         <v>180.6539156432736</v>
@@ -1844,13 +1844,13 @@
         <v>224.1916469265038</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2029638841856</v>
+        <v>212.2029638841855</v>
       </c>
       <c r="D17" t="n">
         <v>203.1842679287135</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9264054986191</v>
+        <v>224.926405498619</v>
       </c>
       <c r="F17" t="n">
         <v>244.0982215865962</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.327087780693534</v>
+        <v>7.327087780693505</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271196</v>
+        <v>53.87599349271193</v>
       </c>
       <c r="U17" t="n">
-        <v>86.38248261101862</v>
+        <v>86.38248261101859</v>
       </c>
       <c r="V17" t="n">
         <v>167.6980241666829</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.52047263646576</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S18" t="n">
         <v>145.9864318313356</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.80835780120088</v>
+        <v>15.80835780120086</v>
       </c>
       <c r="C19" t="n">
-        <v>2.008352646601367</v>
+        <v>2.008352646601338</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080551735177209</v>
+        <v>1.080551735177181</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.623692310974416</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.50406754815924</v>
+        <v>41.50406754815921</v>
       </c>
       <c r="T19" t="n">
-        <v>63.91648063133748</v>
+        <v>63.91648063133745</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3938685259478</v>
+        <v>271.5587350774373</v>
       </c>
       <c r="V19" t="n">
-        <v>92.21649420082647</v>
+        <v>92.21649420082645</v>
       </c>
       <c r="W19" t="n">
         <v>117.3833802714397</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02848226724285</v>
+        <v>63.02848226724282</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.90335002331054</v>
+        <v>53.90335002331051</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>224.1916469265038</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2029638841856</v>
+        <v>212.2029638841855</v>
       </c>
       <c r="D20" t="n">
         <v>203.1842679287135</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9264054986191</v>
+        <v>224.926405498619</v>
       </c>
       <c r="F20" t="n">
         <v>244.0982215865962</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.327087780693534</v>
+        <v>7.327087780693505</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271196</v>
+        <v>53.87599349271193</v>
       </c>
       <c r="U20" t="n">
-        <v>86.38248261101862</v>
+        <v>86.38248261101859</v>
       </c>
       <c r="V20" t="n">
         <v>167.6980241666829</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9981236446387</v>
+        <v>192.9981236446398</v>
       </c>
       <c r="X20" t="n">
         <v>212.2983818773864</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.80835780120088</v>
+        <v>15.80835780120086</v>
       </c>
       <c r="C22" t="n">
-        <v>155.1732191980907</v>
+        <v>2.008352646601338</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.080551735177209</v>
+        <v>1.080551735177181</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S22" t="n">
-        <v>41.50406754815924</v>
+        <v>57.36809590977074</v>
       </c>
       <c r="T22" t="n">
-        <v>63.91648063133748</v>
+        <v>63.91648063133745</v>
       </c>
       <c r="U22" t="n">
         <v>118.3938685259478</v>
       </c>
       <c r="V22" t="n">
-        <v>92.21649420082647</v>
+        <v>92.21649420082645</v>
       </c>
       <c r="W22" t="n">
         <v>117.3833802714397</v>
       </c>
       <c r="X22" t="n">
-        <v>63.02848226724285</v>
+        <v>63.02848226724282</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.90335002331054</v>
+        <v>53.90335002331051</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>224.1916469265038</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2029638841856</v>
+        <v>212.2029638841855</v>
       </c>
       <c r="D23" t="n">
         <v>203.1842679287135</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9264054986191</v>
+        <v>224.926405498619</v>
       </c>
       <c r="F23" t="n">
         <v>244.0982215865962</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4997005366169</v>
+        <v>245.4997005366168</v>
       </c>
       <c r="H23" t="n">
         <v>158.1354209047489</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693546</v>
+        <v>7.327087780693518</v>
       </c>
       <c r="T23" t="n">
-        <v>53.87599349271196</v>
+        <v>53.87599349271193</v>
       </c>
       <c r="U23" t="n">
-        <v>86.38248261101862</v>
+        <v>86.38248261101859</v>
       </c>
       <c r="V23" t="n">
         <v>167.6980241666829</v>
@@ -2412,10 +2412,10 @@
         <v>127.1566828057039</v>
       </c>
       <c r="H24" t="n">
-        <v>96.19049711964605</v>
+        <v>96.19049711964591</v>
       </c>
       <c r="I24" t="n">
-        <v>57.90206971882238</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.80835780120088</v>
+        <v>15.80835780120086</v>
       </c>
       <c r="C25" t="n">
-        <v>2.008352646601367</v>
+        <v>2.008352646601338</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.080551735177209</v>
+        <v>1.080551735177181</v>
       </c>
       <c r="H25" t="n">
-        <v>17.57746755230286</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>135.5873989991865</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
-        <v>41.50406754815924</v>
+        <v>41.50406754815921</v>
       </c>
       <c r="T25" t="n">
-        <v>63.91648063133748</v>
+        <v>79.78050899294911</v>
       </c>
       <c r="U25" t="n">
         <v>118.3938685259478</v>
       </c>
       <c r="V25" t="n">
-        <v>92.21649420082647</v>
+        <v>92.21649420082645</v>
       </c>
       <c r="W25" t="n">
         <v>117.3833802714397</v>
       </c>
       <c r="X25" t="n">
-        <v>63.02848226724285</v>
+        <v>63.02848226724282</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.90335002331054</v>
+        <v>53.90335002331051</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C26" t="n">
-        <v>275.4734992560195</v>
+        <v>275.4734992560194</v>
       </c>
       <c r="D26" t="n">
         <v>266.4548033005474</v>
       </c>
       <c r="E26" t="n">
-        <v>288.196940870453</v>
+        <v>288.1969408704529</v>
       </c>
       <c r="F26" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G26" t="n">
-        <v>308.7702359084508</v>
+        <v>308.7702359084507</v>
       </c>
       <c r="H26" t="n">
         <v>221.4059562765828</v>
@@ -2606,7 +2606,7 @@
         <v>70.59762315252742</v>
       </c>
       <c r="T26" t="n">
-        <v>117.1465288645459</v>
+        <v>117.1465288645458</v>
       </c>
       <c r="U26" t="n">
         <v>149.6530179828525</v>
@@ -2618,7 +2618,7 @@
         <v>256.2686590164737</v>
       </c>
       <c r="X26" t="n">
-        <v>275.5689172492204</v>
+        <v>275.5689172492203</v>
       </c>
       <c r="Y26" t="n">
         <v>286.9655150454191</v>
@@ -2652,7 +2652,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I27" t="n">
-        <v>57.90206971882208</v>
+        <v>57.9020697188221</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.5204726364653</v>
+        <v>41.52047263646534</v>
       </c>
       <c r="S27" t="n">
         <v>145.9864318313356</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303479</v>
+        <v>79.07889317303476</v>
       </c>
       <c r="C28" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843524</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601363</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179308</v>
       </c>
       <c r="F28" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997939</v>
       </c>
       <c r="G28" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701108</v>
       </c>
       <c r="H28" t="n">
-        <v>53.0171398021887</v>
+        <v>53.01713980218868</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468523</v>
+        <v>32.94647717468522</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537673</v>
       </c>
       <c r="S28" t="n">
         <v>104.7746029199931</v>
       </c>
       <c r="T28" t="n">
-        <v>127.1870160031714</v>
+        <v>127.1870160031713</v>
       </c>
       <c r="U28" t="n">
         <v>181.6644038977817</v>
       </c>
       <c r="V28" t="n">
-        <v>155.4870295726604</v>
+        <v>155.4870295726603</v>
       </c>
       <c r="W28" t="n">
         <v>180.6539156432736</v>
       </c>
       <c r="X28" t="n">
-        <v>126.2990176390768</v>
+        <v>126.2990176390767</v>
       </c>
       <c r="Y28" t="n">
         <v>117.1738853951444</v>
@@ -2810,7 +2810,7 @@
         <v>221.4059562765828</v>
       </c>
       <c r="I29" t="n">
-        <v>47.94631158407877</v>
+        <v>47.9463115840788</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65991636537676</v>
+        <v>34.65991636537677</v>
       </c>
       <c r="S31" t="n">
         <v>104.7746029199932</v>
@@ -3038,7 +3038,7 @@
         <v>285.6072367757329</v>
       </c>
       <c r="F32" t="n">
-        <v>304.7790528637101</v>
+        <v>304.77905286371</v>
       </c>
       <c r="G32" t="n">
         <v>306.1805318137307</v>
@@ -3047,7 +3047,7 @@
         <v>218.8162521818628</v>
       </c>
       <c r="I32" t="n">
-        <v>45.35660748935874</v>
+        <v>45.35660748935871</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.00791905780741</v>
+        <v>68.00791905780738</v>
       </c>
       <c r="T32" t="n">
         <v>114.5568247698258</v>
@@ -3095,7 +3095,7 @@
         <v>272.9792131545003</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.3758109506991</v>
+        <v>284.375810950699</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831475</v>
+        <v>76.48918907831472</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371523</v>
+        <v>62.68918392371521</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31054832129362</v>
+        <v>46.3105483212936</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707307</v>
+        <v>45.25829817707304</v>
       </c>
       <c r="F34" t="n">
-        <v>45.72522250525938</v>
+        <v>45.72522250525935</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229108</v>
+        <v>61.76138301229105</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746867</v>
+        <v>50.42743570746865</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996521</v>
+        <v>30.35677307996518</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065671</v>
+        <v>32.07021227065668</v>
       </c>
       <c r="S34" t="n">
         <v>102.1848988252731</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9374148203184</v>
+        <v>236.9374148203185</v>
       </c>
       <c r="C35" t="n">
-        <v>224.9487317780002</v>
+        <v>224.9487317780003</v>
       </c>
       <c r="D35" t="n">
-        <v>215.9300358225281</v>
+        <v>215.9300358225283</v>
       </c>
       <c r="E35" t="n">
-        <v>237.6721733924337</v>
+        <v>237.6721733924338</v>
       </c>
       <c r="F35" t="n">
-        <v>256.8439894804109</v>
+        <v>256.843989480411</v>
       </c>
       <c r="G35" t="n">
-        <v>258.2454684304315</v>
+        <v>258.2454684304316</v>
       </c>
       <c r="H35" t="n">
-        <v>170.8811887985636</v>
+        <v>170.8811887985637</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.07285567450816</v>
+        <v>20.07285567450826</v>
       </c>
       <c r="T35" t="n">
-        <v>66.62176138652657</v>
+        <v>66.62176138652669</v>
       </c>
       <c r="U35" t="n">
-        <v>99.12825050483323</v>
+        <v>99.12825050483335</v>
       </c>
       <c r="V35" t="n">
-        <v>180.4437920604975</v>
+        <v>180.4437920604977</v>
       </c>
       <c r="W35" t="n">
-        <v>205.7438915384544</v>
+        <v>205.7438915384546</v>
       </c>
       <c r="X35" t="n">
-        <v>225.0441497712011</v>
+        <v>225.0441497712012</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.4407475673998</v>
+        <v>236.4407475673999</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.5541256950155</v>
+        <v>28.55412569501561</v>
       </c>
       <c r="C37" t="n">
-        <v>14.75412054041598</v>
+        <v>14.7541205404161</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.82631962899183</v>
+        <v>13.82631962899194</v>
       </c>
       <c r="H37" t="n">
-        <v>2.492372324169421</v>
+        <v>2.492372324169535</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.21481528917366</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.24983544197386</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66224852515209</v>
+        <v>76.66224852515221</v>
       </c>
       <c r="U37" t="n">
-        <v>131.1396364197624</v>
+        <v>131.1396364197626</v>
       </c>
       <c r="V37" t="n">
-        <v>104.9622620946411</v>
+        <v>104.9622620946412</v>
       </c>
       <c r="W37" t="n">
-        <v>130.1291481652543</v>
+        <v>130.1291481652545</v>
       </c>
       <c r="X37" t="n">
-        <v>75.77425016105747</v>
+        <v>75.77425016105758</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.64911791712515</v>
+        <v>89.86393320629763</v>
       </c>
     </row>
     <row r="38">
@@ -3506,19 +3506,19 @@
         <v>224.9487317780003</v>
       </c>
       <c r="D38" t="n">
-        <v>215.9300358225282</v>
+        <v>215.9300358225283</v>
       </c>
       <c r="E38" t="n">
         <v>237.6721733924338</v>
       </c>
       <c r="F38" t="n">
-        <v>256.8439894804109</v>
+        <v>256.843989480411</v>
       </c>
       <c r="G38" t="n">
         <v>258.2454684304316</v>
       </c>
       <c r="H38" t="n">
-        <v>170.8811887985636</v>
+        <v>170.8811887985637</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.07285567450825</v>
+        <v>20.07285567450826</v>
       </c>
       <c r="T38" t="n">
-        <v>66.62176138652666</v>
+        <v>66.62176138652669</v>
       </c>
       <c r="U38" t="n">
-        <v>99.12825050483332</v>
+        <v>99.12825050483335</v>
       </c>
       <c r="V38" t="n">
-        <v>180.4437920604976</v>
+        <v>180.4437920604977</v>
       </c>
       <c r="W38" t="n">
-        <v>205.7438915384545</v>
+        <v>205.7438915384546</v>
       </c>
       <c r="X38" t="n">
-        <v>225.0441497712011</v>
+        <v>225.0441497712012</v>
       </c>
       <c r="Y38" t="n">
         <v>236.4407475673999</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.55412569501559</v>
+        <v>28.55412569501561</v>
       </c>
       <c r="C40" t="n">
-        <v>14.75412054041607</v>
+        <v>14.7541205404161</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.82631962899191</v>
+        <v>13.82631962899194</v>
       </c>
       <c r="H40" t="n">
-        <v>2.492372324169506</v>
+        <v>2.492372324169535</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.24983544197394</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T40" t="n">
-        <v>76.66224852515218</v>
+        <v>81.69975348207666</v>
       </c>
       <c r="U40" t="n">
-        <v>154.3544517089353</v>
+        <v>131.1396364197626</v>
       </c>
       <c r="V40" t="n">
         <v>104.9622620946412</v>
       </c>
       <c r="W40" t="n">
-        <v>130.1291481652544</v>
+        <v>130.1291481652545</v>
       </c>
       <c r="X40" t="n">
-        <v>75.77425016105755</v>
+        <v>75.77425016105758</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.64911791712524</v>
+        <v>66.64911791712527</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>245.8985365302862</v>
       </c>
       <c r="D41" t="n">
-        <v>236.8798405748142</v>
+        <v>221.3763682755088</v>
       </c>
       <c r="E41" t="n">
         <v>258.6219781447197</v>
       </c>
       <c r="F41" t="n">
-        <v>277.7937942326969</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>279.1952731827175</v>
@@ -3758,7 +3758,7 @@
         <v>191.8309935508496</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37134885834556</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>87.57156613881264</v>
       </c>
       <c r="U41" t="n">
-        <v>35.10313615751026</v>
+        <v>120.0780552571193</v>
       </c>
       <c r="V41" t="n">
         <v>201.3935968127836</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>226.6936962907405</v>
       </c>
       <c r="X41" t="n">
         <v>245.9939545234871</v>
@@ -3977,25 +3977,25 @@
         <v>257.8872195726045</v>
       </c>
       <c r="C44" t="n">
-        <v>245.8985365302863</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>236.8798405748142</v>
       </c>
       <c r="E44" t="n">
-        <v>258.6219781447198</v>
+        <v>258.6219781447197</v>
       </c>
       <c r="F44" t="n">
         <v>277.7937942326969</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1952731827176</v>
+        <v>279.1952731827175</v>
       </c>
       <c r="H44" t="n">
         <v>191.8309935508496</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834558</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.02266042679425</v>
+        <v>41.02266042679422</v>
       </c>
       <c r="T44" t="n">
-        <v>87.57156613881267</v>
+        <v>87.57156613881264</v>
       </c>
       <c r="U44" t="n">
-        <v>65.79999218645528</v>
+        <v>120.0780552571193</v>
       </c>
       <c r="V44" t="n">
         <v>201.3935968127836</v>
@@ -4040,10 +4040,10 @@
         <v>226.6936962907405</v>
       </c>
       <c r="X44" t="n">
-        <v>245.9939545234872</v>
+        <v>245.9939545234871</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>209.9918223179697</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.5039304473016</v>
+        <v>49.50393044730157</v>
       </c>
       <c r="C46" t="n">
-        <v>35.70392529270208</v>
+        <v>35.70392529270205</v>
       </c>
       <c r="D46" t="n">
-        <v>19.32528969028047</v>
+        <v>19.32528969028044</v>
       </c>
       <c r="E46" t="n">
-        <v>18.27303954605992</v>
+        <v>18.27303954605989</v>
       </c>
       <c r="F46" t="n">
-        <v>18.73996387424623</v>
+        <v>18.7399638742462</v>
       </c>
       <c r="G46" t="n">
-        <v>34.77612438127792</v>
+        <v>34.7761243812779</v>
       </c>
       <c r="H46" t="n">
-        <v>23.44217707645552</v>
+        <v>23.44217707645549</v>
       </c>
       <c r="I46" t="n">
-        <v>3.371514448952057</v>
+        <v>3.371514448952029</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.084953639643562</v>
+        <v>5.084953639643533</v>
       </c>
       <c r="S46" t="n">
-        <v>75.19964019425996</v>
+        <v>75.19964019425993</v>
       </c>
       <c r="T46" t="n">
-        <v>97.61205327743819</v>
+        <v>97.61205327743816</v>
       </c>
       <c r="U46" t="n">
         <v>152.0894411720485</v>
@@ -4198,10 +4198,10 @@
         <v>151.0789529175404</v>
       </c>
       <c r="X46" t="n">
-        <v>96.72405491334356</v>
+        <v>96.72405491334354</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.59892266941125</v>
+        <v>87.59892266941122</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
         <v>21.02234760148574</v>
@@ -4802,16 +4802,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.3099691464193</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="L8" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N8" t="n">
         <v>30.12913313662339</v>
@@ -4826,28 +4826,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T8" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="S8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="T8" t="n">
-        <v>21.02234760148574</v>
-      </c>
       <c r="U8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4887,46 +4887,46 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L9" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M9" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N9" t="n">
-        <v>30.12913313662339</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S9" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T9" t="n">
         <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V9" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
         <v>0.8007743026345088</v>
@@ -4963,19 +4963,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M10" t="n">
-        <v>10.71035629773655</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N10" t="n">
-        <v>20.6199382928386</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O10" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
@@ -4990,22 +4990,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U10" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V10" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1505.329229860674</v>
+        <v>840.4198283114483</v>
       </c>
       <c r="C11" t="n">
-        <v>1505.329229860674</v>
+        <v>840.4198283114483</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.182963900525</v>
+        <v>571.2735623512995</v>
       </c>
       <c r="E11" t="n">
-        <v>945.0749428192596</v>
+        <v>361.1128177999542</v>
       </c>
       <c r="F11" t="n">
-        <v>634.6014509420575</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="G11" t="n">
-        <v>322.7123237618042</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H11" t="n">
-        <v>99.06994368444779</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I11" t="n">
         <v>50.63932592275207</v>
@@ -5045,7 +5045,7 @@
         <v>474.4309080280418</v>
       </c>
       <c r="L11" t="n">
-        <v>905.397362586943</v>
+        <v>725.1541802501685</v>
       </c>
       <c r="M11" t="n">
         <v>1210.837057653636</v>
@@ -5072,19 +5072,19 @@
         <v>2342.3257385446</v>
       </c>
       <c r="U11" t="n">
-        <v>2191.161073915456</v>
+        <v>2191.161073915457</v>
       </c>
       <c r="V11" t="n">
         <v>1957.859498624025</v>
       </c>
       <c r="W11" t="n">
-        <v>1957.859498624025</v>
+        <v>1699.002267294254</v>
       </c>
       <c r="X11" t="n">
-        <v>1679.507056958146</v>
+        <v>1420.649825628375</v>
       </c>
       <c r="Y11" t="n">
-        <v>1679.507056958146</v>
+        <v>1130.78566901684</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.9935948405686</v>
+        <v>916.9935948405698</v>
       </c>
       <c r="C12" t="n">
-        <v>755.2899220815234</v>
+        <v>755.2899220815245</v>
       </c>
       <c r="D12" t="n">
-        <v>616.4512850717356</v>
+        <v>616.4512850717366</v>
       </c>
       <c r="E12" t="n">
-        <v>469.4232751286067</v>
+        <v>469.4232751286078</v>
       </c>
       <c r="F12" t="n">
-        <v>334.7294770784811</v>
+        <v>334.7294770784822</v>
       </c>
       <c r="G12" t="n">
-        <v>206.2883833353458</v>
+        <v>206.2883833353469</v>
       </c>
       <c r="H12" t="n">
-        <v>109.126265032673</v>
+        <v>109.1262650326741</v>
       </c>
       <c r="I12" t="n">
         <v>50.63932592275207</v>
@@ -5130,13 +5130,13 @@
         <v>1395.87360066356</v>
       </c>
       <c r="N12" t="n">
-        <v>1716.86012528181</v>
+        <v>1980.401301569101</v>
       </c>
       <c r="O12" t="n">
-        <v>2176.080543287699</v>
+        <v>1982.351834253087</v>
       </c>
       <c r="P12" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.966296137603</v>
@@ -5148,22 +5148,22 @@
         <v>2342.565382533764</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.934363972251</v>
+        <v>1268.934363972252</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.41303762183</v>
+        <v>1076.413037621831</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.9390970238705</v>
+        <v>414.93909702387</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981782</v>
+        <v>349.0008262981778</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385684</v>
+        <v>299.6066319385679</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2753165125147</v>
+        <v>251.2753165125143</v>
       </c>
       <c r="F13" t="n">
-        <v>202.4723603509194</v>
+        <v>202.4723603509189</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4712622630293</v>
+        <v>137.4712622630288</v>
       </c>
       <c r="H13" t="n">
-        <v>83.9185957961715</v>
+        <v>83.91859579617152</v>
       </c>
       <c r="I13" t="n">
         <v>50.63932592275207</v>
       </c>
       <c r="J13" t="n">
-        <v>110.0880241976686</v>
+        <v>110.0880241976687</v>
       </c>
       <c r="K13" t="n">
         <v>272.7438500392108</v>
@@ -5212,19 +5212,19 @@
         <v>1022.877469947108</v>
       </c>
       <c r="O13" t="n">
-        <v>1256.335318182741</v>
+        <v>1256.33531818274</v>
       </c>
       <c r="P13" t="n">
         <v>1449.480405090492</v>
       </c>
       <c r="Q13" t="n">
-        <v>1533.099380467823</v>
+        <v>1533.099380467822</v>
       </c>
       <c r="R13" t="n">
         <v>1498.089363937139</v>
       </c>
       <c r="S13" t="n">
-        <v>1392.256431694722</v>
+        <v>1392.256431694721</v>
       </c>
       <c r="T13" t="n">
         <v>1263.784698358185</v>
@@ -5233,16 +5233,16 @@
         <v>1080.285300481638</v>
       </c>
       <c r="V13" t="n">
-        <v>923.2276948526882</v>
+        <v>923.2276948526879</v>
       </c>
       <c r="W13" t="n">
-        <v>740.7489921827149</v>
+        <v>740.7489921827146</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1742268907183</v>
+        <v>613.1742268907178</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.8167668956229</v>
+        <v>494.8167668956223</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1332.578634932651</v>
+        <v>1132.157523692025</v>
       </c>
       <c r="C14" t="n">
-        <v>1332.578634932651</v>
+        <v>853.9014638374596</v>
       </c>
       <c r="D14" t="n">
-        <v>1236.182963900525</v>
+        <v>584.7551978773106</v>
       </c>
       <c r="E14" t="n">
-        <v>945.0749428192596</v>
+        <v>584.7551978773106</v>
       </c>
       <c r="F14" t="n">
-        <v>634.6014509420576</v>
+        <v>274.2817060001084</v>
       </c>
       <c r="G14" t="n">
-        <v>322.7123237618042</v>
+        <v>274.2817060001084</v>
       </c>
       <c r="H14" t="n">
-        <v>99.06994368444779</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J14" t="n">
         <v>167.3214431483646</v>
@@ -5282,16 +5282,16 @@
         <v>474.4309080280416</v>
       </c>
       <c r="L14" t="n">
-        <v>905.3973625869426</v>
+        <v>905.3973625869427</v>
       </c>
       <c r="M14" t="n">
-        <v>1391.08023999041</v>
+        <v>1391.080239990411</v>
       </c>
       <c r="N14" t="n">
-        <v>1863.351145721843</v>
+        <v>1834.393168528417</v>
       </c>
       <c r="O14" t="n">
-        <v>2257.060180656124</v>
+        <v>2228.102203462698</v>
       </c>
       <c r="P14" t="n">
         <v>2531.966296137603</v>
@@ -5303,7 +5303,7 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.655565680504</v>
+        <v>2460.655565680505</v>
       </c>
       <c r="T14" t="n">
         <v>2342.3257385446</v>
@@ -5312,16 +5312,16 @@
         <v>2191.161073915456</v>
       </c>
       <c r="V14" t="n">
-        <v>2191.161073915456</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W14" t="n">
-        <v>2191.161073915456</v>
+        <v>1700.875806063295</v>
       </c>
       <c r="X14" t="n">
-        <v>1912.808632249577</v>
+        <v>1422.523364397416</v>
       </c>
       <c r="Y14" t="n">
-        <v>1622.944475638042</v>
+        <v>1422.523364397416</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J15" t="n">
-        <v>137.50670239343</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K15" t="n">
         <v>412.483503809827</v>
       </c>
       <c r="L15" t="n">
-        <v>575.9260476315817</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M15" t="n">
-        <v>1132.332424376269</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N15" t="n">
-        <v>1716.860125281809</v>
+        <v>1523.131416247198</v>
       </c>
       <c r="O15" t="n">
-        <v>2176.080543287698</v>
+        <v>1982.351834253087</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.966296137603</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.9390970238703</v>
+        <v>414.9390970238699</v>
       </c>
       <c r="C16" t="n">
-        <v>349.0008262981781</v>
+        <v>349.0008262981777</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6066319385684</v>
+        <v>299.6066319385679</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2753165125148</v>
+        <v>251.2753165125143</v>
       </c>
       <c r="F16" t="n">
-        <v>202.4723603509193</v>
+        <v>202.472360350919</v>
       </c>
       <c r="G16" t="n">
-        <v>137.4712622630293</v>
+        <v>137.4712622630294</v>
       </c>
       <c r="H16" t="n">
         <v>83.9185957961715</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J16" t="n">
-        <v>110.0880241976686</v>
+        <v>110.0880241976684</v>
       </c>
       <c r="K16" t="n">
-        <v>272.7438500392108</v>
+        <v>272.7438500392106</v>
       </c>
       <c r="L16" t="n">
-        <v>510.0755164020621</v>
+        <v>510.0755164020619</v>
       </c>
       <c r="M16" t="n">
-        <v>766.702185748999</v>
+        <v>766.7021857489989</v>
       </c>
       <c r="N16" t="n">
         <v>1022.877469947108</v>
@@ -5455,31 +5455,31 @@
         <v>1449.480405090492</v>
       </c>
       <c r="Q16" t="n">
-        <v>1533.099380467823</v>
+        <v>1533.099380467822</v>
       </c>
       <c r="R16" t="n">
         <v>1498.089363937139</v>
       </c>
       <c r="S16" t="n">
-        <v>1392.256431694722</v>
+        <v>1392.256431694721</v>
       </c>
       <c r="T16" t="n">
         <v>1263.784698358185</v>
       </c>
       <c r="U16" t="n">
-        <v>1080.285300481638</v>
+        <v>1080.285300481637</v>
       </c>
       <c r="V16" t="n">
-        <v>923.227694852688</v>
+        <v>923.2276948526876</v>
       </c>
       <c r="W16" t="n">
-        <v>740.7489921827148</v>
+        <v>740.7489921827142</v>
       </c>
       <c r="X16" t="n">
-        <v>613.174226890718</v>
+        <v>613.1742268907175</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.8167668956226</v>
+        <v>494.8167668956222</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.696881821216</v>
+        <v>1351.696881821217</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.350453655372</v>
+        <v>1137.350453655373</v>
       </c>
       <c r="D17" t="n">
-        <v>932.1138193839447</v>
+        <v>932.1138193839456</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9154299914005</v>
+        <v>704.915429991401</v>
       </c>
       <c r="F17" t="n">
-        <v>458.3515698029196</v>
+        <v>458.35156980292</v>
       </c>
       <c r="G17" t="n">
         <v>210.3720743113874</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J17" t="n">
         <v>167.3214431483646</v>
@@ -5519,16 +5519,16 @@
         <v>474.4309080280416</v>
       </c>
       <c r="L17" t="n">
-        <v>905.3973625869426</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M17" t="n">
-        <v>1391.08023999041</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N17" t="n">
-        <v>1683.107963385069</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.81699831935</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P17" t="n">
         <v>2380.681090994256</v>
@@ -5552,13 +5552,13 @@
         <v>2213.498025378909</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.550425737858</v>
+        <v>2018.550425737859</v>
       </c>
       <c r="X17" t="n">
-        <v>1804.1076157607</v>
+        <v>1804.107615760701</v>
       </c>
       <c r="Y17" t="n">
-        <v>1578.153090837887</v>
+        <v>1578.153090837888</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J18" t="n">
-        <v>50.63932592275206</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K18" t="n">
-        <v>148.9423275225358</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L18" t="n">
-        <v>575.9260476315816</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M18" t="n">
-        <v>1132.332424376269</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N18" t="n">
         <v>1716.860125281809</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.8313245311293</v>
+        <v>53.75943135889199</v>
       </c>
       <c r="C19" t="n">
-        <v>204.8026854941583</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="D19" t="n">
-        <v>51.73079232192096</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="E19" t="n">
-        <v>51.73079232192096</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="F19" t="n">
-        <v>51.73079232192096</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K19" t="n">
         <v>111.680639158038</v>
@@ -5680,7 +5680,7 @@
         <v>247.3977929146331</v>
       </c>
       <c r="M19" t="n">
-        <v>402.4099496553138</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N19" t="n">
         <v>556.9707212471667</v>
@@ -5695,28 +5695,28 @@
         <v>780.3446311780378</v>
       </c>
       <c r="R19" t="n">
-        <v>778.7045379346293</v>
+        <v>780.3446311780378</v>
       </c>
       <c r="S19" t="n">
-        <v>736.7812373809331</v>
+        <v>738.4213306243416</v>
       </c>
       <c r="T19" t="n">
-        <v>672.2191357331175</v>
+        <v>673.8592289765261</v>
       </c>
       <c r="U19" t="n">
-        <v>552.6293695452914</v>
+        <v>399.557476373054</v>
       </c>
       <c r="V19" t="n">
-        <v>459.4813956050626</v>
+        <v>306.4095024328253</v>
       </c>
       <c r="W19" t="n">
-        <v>340.9123246238104</v>
+        <v>187.840431451573</v>
       </c>
       <c r="X19" t="n">
-        <v>277.2471910205348</v>
+        <v>124.1752978482974</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.7993627141605</v>
+        <v>69.72746954192317</v>
       </c>
     </row>
     <row r="20">
@@ -5735,37 +5735,37 @@
         <v>932.1138193839458</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914011</v>
+        <v>704.9154299914013</v>
       </c>
       <c r="F20" t="n">
-        <v>458.3515698029198</v>
+        <v>458.3515698029203</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3720743113874</v>
+        <v>210.3720743113873</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J20" t="n">
-        <v>50.63932592275206</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K20" t="n">
-        <v>357.7487908024291</v>
+        <v>294.1877256912682</v>
       </c>
       <c r="L20" t="n">
-        <v>788.7152453613301</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M20" t="n">
-        <v>1210.837057653636</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N20" t="n">
-        <v>1683.107963385069</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O20" t="n">
-        <v>2076.81699831935</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P20" t="n">
         <v>2380.681090994256</v>
@@ -5777,19 +5777,19 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.565197369226</v>
+        <v>2524.565197369227</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.145001922043</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.88996898162</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.498025378908</v>
+        <v>2213.49802537891</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.550425737859</v>
+        <v>2018.55042573786</v>
       </c>
       <c r="X20" t="n">
         <v>1804.107615760701</v>
@@ -5826,7 +5826,7 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J21" t="n">
         <v>137.5067023934301</v>
@@ -5838,16 +5838,16 @@
         <v>839.4672239188728</v>
       </c>
       <c r="M21" t="n">
-        <v>1132.332424376269</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N21" t="n">
-        <v>1716.860125281809</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O21" t="n">
-        <v>2176.080543287698</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.966296137603</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.4714177745378</v>
+        <v>53.75943135889199</v>
       </c>
       <c r="C22" t="n">
-        <v>51.73079232192096</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="D22" t="n">
-        <v>51.73079232192096</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="E22" t="n">
-        <v>51.73079232192096</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="F22" t="n">
-        <v>51.73079232192096</v>
+        <v>51.73079232192094</v>
       </c>
       <c r="G22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K22" t="n">
         <v>111.680639158038</v>
@@ -5917,7 +5917,7 @@
         <v>247.3977929146331</v>
       </c>
       <c r="M22" t="n">
-        <v>402.4099496553138</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N22" t="n">
         <v>556.9707212471667</v>
@@ -5932,28 +5932,28 @@
         <v>780.3446311780378</v>
       </c>
       <c r="R22" t="n">
-        <v>780.3446311780378</v>
+        <v>641.6569158347268</v>
       </c>
       <c r="S22" t="n">
-        <v>738.4213306243416</v>
+        <v>583.7093442086957</v>
       </c>
       <c r="T22" t="n">
-        <v>673.859228976526</v>
+        <v>519.14724256088</v>
       </c>
       <c r="U22" t="n">
-        <v>554.2694627886999</v>
+        <v>399.557476373054</v>
       </c>
       <c r="V22" t="n">
-        <v>461.1214888484711</v>
+        <v>306.4095024328253</v>
       </c>
       <c r="W22" t="n">
-        <v>342.5524178672189</v>
+        <v>187.840431451573</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8872842639433</v>
+        <v>124.1752978482974</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.439455957569</v>
+        <v>69.72746954192317</v>
       </c>
     </row>
     <row r="23">
@@ -5972,37 +5972,37 @@
         <v>932.1138193839452</v>
       </c>
       <c r="E23" t="n">
-        <v>704.9154299914006</v>
+        <v>704.9154299914007</v>
       </c>
       <c r="F23" t="n">
-        <v>458.3515698029196</v>
+        <v>458.3515698029198</v>
       </c>
       <c r="G23" t="n">
-        <v>210.3720743113874</v>
+        <v>210.3720743113873</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275205</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275205</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63932592275206</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K23" t="n">
-        <v>294.1877256912673</v>
+        <v>474.4309080280416</v>
       </c>
       <c r="L23" t="n">
-        <v>725.1541802501683</v>
+        <v>905.3973625869426</v>
       </c>
       <c r="M23" t="n">
-        <v>1210.837057653636</v>
+        <v>1391.08023999041</v>
       </c>
       <c r="N23" t="n">
-        <v>1683.107963385069</v>
+        <v>1863.351145721844</v>
       </c>
       <c r="O23" t="n">
-        <v>2076.81699831935</v>
+        <v>2257.060180656124</v>
       </c>
       <c r="P23" t="n">
         <v>2380.681090994256</v>
@@ -6014,7 +6014,7 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.565197369226</v>
+        <v>2524.565197369225</v>
       </c>
       <c r="T23" t="n">
         <v>2470.145001922042</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.9935948405694</v>
+        <v>916.9935948405689</v>
       </c>
       <c r="C24" t="n">
-        <v>755.2899220815241</v>
+        <v>755.2899220815236</v>
       </c>
       <c r="D24" t="n">
-        <v>616.4512850717362</v>
+        <v>616.4512850717357</v>
       </c>
       <c r="E24" t="n">
-        <v>469.4232751286074</v>
+        <v>469.4232751286069</v>
       </c>
       <c r="F24" t="n">
-        <v>334.7294770784818</v>
+        <v>334.7294770784813</v>
       </c>
       <c r="G24" t="n">
-        <v>206.2883833353465</v>
+        <v>206.288383335346</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1262650326737</v>
+        <v>109.1262650326734</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275205</v>
       </c>
       <c r="J24" t="n">
-        <v>137.5067023934301</v>
+        <v>107.2205371805719</v>
       </c>
       <c r="K24" t="n">
-        <v>412.483503809827</v>
+        <v>382.1973385969688</v>
       </c>
       <c r="L24" t="n">
-        <v>839.4672239188728</v>
+        <v>382.1973385969688</v>
       </c>
       <c r="M24" t="n">
-        <v>1395.87360066356</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N24" t="n">
         <v>1523.131416247197</v>
@@ -6084,7 +6084,7 @@
         <v>1982.351834253086</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.237587102991</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.966296137603</v>
@@ -6093,19 +6093,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.565382533764</v>
+        <v>2342.565382533763</v>
       </c>
       <c r="T24" t="n">
-        <v>2155.038727509662</v>
+        <v>2155.038727509661</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.562843412813</v>
+        <v>1936.562843412812</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.167220861147</v>
+        <v>1708.167220861146</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.851352094457</v>
+        <v>1466.851352094456</v>
       </c>
       <c r="X24" t="n">
         <v>1268.934363972251</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.4714177745378</v>
+        <v>53.75943135889197</v>
       </c>
       <c r="C25" t="n">
-        <v>206.4427787375668</v>
+        <v>51.73079232192092</v>
       </c>
       <c r="D25" t="n">
-        <v>206.4427787375668</v>
+        <v>51.73079232192092</v>
       </c>
       <c r="E25" t="n">
-        <v>206.4427787375668</v>
+        <v>51.73079232192092</v>
       </c>
       <c r="F25" t="n">
-        <v>206.4427787375668</v>
+        <v>51.73079232192092</v>
       </c>
       <c r="G25" t="n">
-        <v>205.3513123383979</v>
+        <v>50.63932592275205</v>
       </c>
       <c r="H25" t="n">
-        <v>187.596294608799</v>
+        <v>50.63932592275205</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275205</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275205</v>
       </c>
       <c r="K25" t="n">
         <v>111.680639158038</v>
@@ -6169,28 +6169,28 @@
         <v>780.3446311780378</v>
       </c>
       <c r="R25" t="n">
-        <v>780.3446311780378</v>
+        <v>641.6569158347268</v>
       </c>
       <c r="S25" t="n">
-        <v>738.4213306243416</v>
+        <v>599.7336152810306</v>
       </c>
       <c r="T25" t="n">
-        <v>673.859228976526</v>
+        <v>519.1472425608799</v>
       </c>
       <c r="U25" t="n">
-        <v>554.2694627886999</v>
+        <v>399.5574763730539</v>
       </c>
       <c r="V25" t="n">
-        <v>461.1214888484711</v>
+        <v>306.4095024328252</v>
       </c>
       <c r="W25" t="n">
-        <v>342.5524178672189</v>
+        <v>187.840431451573</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8872842639433</v>
+        <v>124.1752978482974</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.439455957569</v>
+        <v>69.72746954192314</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1255.431238623052</v>
       </c>
       <c r="E26" t="n">
-        <v>964.3232175417866</v>
+        <v>964.3232175417863</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8497256645844</v>
+        <v>653.8497256645842</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843311</v>
+        <v>341.9605984843309</v>
       </c>
       <c r="H26" t="n">
         <v>118.3182184069742</v>
@@ -6230,28 +6230,28 @@
         <v>696.9082079630805</v>
       </c>
       <c r="L26" t="n">
-        <v>1133.644487749101</v>
+        <v>1229.489175128238</v>
       </c>
       <c r="M26" t="n">
-        <v>1720.941877758825</v>
+        <v>1816.786565137962</v>
       </c>
       <c r="N26" t="n">
-        <v>2294.827296096515</v>
+        <v>2390.671983475651</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.150843637052</v>
+        <v>2885.995531016188</v>
       </c>
       <c r="P26" t="n">
-        <v>3195.629448918214</v>
+        <v>3195.629448918213</v>
       </c>
       <c r="Q26" t="n">
-        <v>3448.529166667817</v>
+        <v>3448.529166667816</v>
       </c>
       <c r="R26" t="n">
         <v>3494.380032263921</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.069301806823</v>
+        <v>3423.069301806822</v>
       </c>
       <c r="T26" t="n">
         <v>3304.739474670918</v>
@@ -6260,16 +6260,16 @@
         <v>3153.574810041774</v>
       </c>
       <c r="V26" t="n">
-        <v>2920.273234750343</v>
+        <v>2920.273234750342</v>
       </c>
       <c r="W26" t="n">
-        <v>2661.416003420572</v>
+        <v>2661.416003420571</v>
       </c>
       <c r="X26" t="n">
         <v>2383.063561754692</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.199405143158</v>
+        <v>2093.199405143157</v>
       </c>
     </row>
     <row r="27">
@@ -6291,10 +6291,10 @@
         <v>488.6715498511335</v>
       </c>
       <c r="F27" t="n">
-        <v>353.9777518010078</v>
+        <v>353.9777518010079</v>
       </c>
       <c r="G27" t="n">
-        <v>225.5366580578725</v>
+        <v>225.5366580578726</v>
       </c>
       <c r="H27" t="n">
         <v>128.3745397551997</v>
@@ -6309,19 +6309,19 @@
         <v>344.8644020616754</v>
       </c>
       <c r="L27" t="n">
-        <v>771.8481221707214</v>
+        <v>771.8481221707211</v>
       </c>
       <c r="M27" t="n">
-        <v>1328.254498915409</v>
+        <v>957.8519900641835</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.108400004335</v>
+        <v>1542.379690969724</v>
       </c>
       <c r="O27" t="n">
-        <v>2195.328818010224</v>
+        <v>2001.600108975613</v>
       </c>
       <c r="P27" t="n">
-        <v>2551.214570860129</v>
+        <v>2357.485861825518</v>
       </c>
       <c r="Q27" t="n">
         <v>2551.214570860129</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.1873717463961</v>
+        <v>434.187371746396</v>
       </c>
       <c r="C28" t="n">
-        <v>368.249101020704</v>
+        <v>368.2491010207038</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8549066610942</v>
+        <v>318.8549066610941</v>
       </c>
       <c r="E28" t="n">
-        <v>270.5235912350406</v>
+        <v>270.5235912350405</v>
       </c>
       <c r="F28" t="n">
         <v>221.7206350734452</v>
@@ -6385,13 +6385,13 @@
         <v>129.336298920195</v>
       </c>
       <c r="K28" t="n">
-        <v>291.9921247617372</v>
+        <v>291.9921247617373</v>
       </c>
       <c r="L28" t="n">
         <v>529.3237911245885</v>
       </c>
       <c r="M28" t="n">
-        <v>785.9504604715254</v>
+        <v>785.9504604715256</v>
       </c>
       <c r="N28" t="n">
         <v>1042.125744669635</v>
@@ -6403,13 +6403,13 @@
         <v>1468.728679813018</v>
       </c>
       <c r="Q28" t="n">
-        <v>1552.347655190349</v>
+        <v>1552.347655190348</v>
       </c>
       <c r="R28" t="n">
         <v>1517.337638659665</v>
       </c>
       <c r="S28" t="n">
-        <v>1411.504706417248</v>
+        <v>1411.504706417247</v>
       </c>
       <c r="T28" t="n">
         <v>1283.032973080711</v>
@@ -6418,16 +6418,16 @@
         <v>1099.533575204164</v>
       </c>
       <c r="V28" t="n">
-        <v>942.4759695752139</v>
+        <v>942.4759695752136</v>
       </c>
       <c r="W28" t="n">
-        <v>759.9972669052405</v>
+        <v>759.9972669052403</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132438</v>
+        <v>632.4225016132436</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.0650416181485</v>
+        <v>514.0650416181484</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1802.833564437766</v>
+        <v>1802.833564437765</v>
       </c>
       <c r="C29" t="n">
-        <v>1524.577504583201</v>
+        <v>1524.5775045832</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.431238623052</v>
+        <v>1255.431238623051</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3232175417861</v>
+        <v>964.3232175417857</v>
       </c>
       <c r="F29" t="n">
-        <v>653.849725664584</v>
+        <v>653.8497256645835</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9605984843306</v>
+        <v>341.9605984843301</v>
       </c>
       <c r="H29" t="n">
         <v>118.3182184069742</v>
@@ -6464,46 +6464,46 @@
         <v>288.1842304771472</v>
       </c>
       <c r="K29" t="n">
-        <v>696.9082079630805</v>
+        <v>646.9143861800478</v>
       </c>
       <c r="L29" t="n">
-        <v>1229.489175128238</v>
+        <v>1179.495353345205</v>
       </c>
       <c r="M29" t="n">
-        <v>1816.786565137962</v>
+        <v>1766.792743354929</v>
       </c>
       <c r="N29" t="n">
-        <v>2390.671983475651</v>
+        <v>2340.678161692619</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.150843637052</v>
+        <v>2836.001709233156</v>
       </c>
       <c r="P29" t="n">
-        <v>3195.629448918214</v>
+        <v>3241.480314514318</v>
       </c>
       <c r="Q29" t="n">
-        <v>3448.529166667817</v>
+        <v>3494.380032263921</v>
       </c>
       <c r="R29" t="n">
         <v>3494.380032263921</v>
       </c>
       <c r="S29" t="n">
-        <v>3423.069301806823</v>
+        <v>3423.069301806822</v>
       </c>
       <c r="T29" t="n">
         <v>3304.739474670918</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.574810041774</v>
+        <v>3153.574810041773</v>
       </c>
       <c r="V29" t="n">
-        <v>2920.273234750343</v>
+        <v>2920.273234750342</v>
       </c>
       <c r="W29" t="n">
-        <v>2661.416003420572</v>
+        <v>2661.416003420571</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.063561754692</v>
+        <v>2383.063561754691</v>
       </c>
       <c r="Y29" t="n">
         <v>2093.199405143157</v>
@@ -6540,16 +6540,16 @@
         <v>69.88760064527843</v>
       </c>
       <c r="J30" t="n">
-        <v>156.7549771159565</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="K30" t="n">
-        <v>431.7317785323535</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="L30" t="n">
-        <v>858.7154986413993</v>
+        <v>496.8713207543243</v>
       </c>
       <c r="M30" t="n">
-        <v>1415.121875386087</v>
+        <v>1053.277697499012</v>
       </c>
       <c r="N30" t="n">
         <v>1542.379690969723</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.1873717463963</v>
+        <v>434.1873717463968</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2491010207041</v>
+        <v>368.2491010207045</v>
       </c>
       <c r="D31" t="n">
-        <v>318.8549066610943</v>
+        <v>318.8549066610947</v>
       </c>
       <c r="E31" t="n">
-        <v>270.5235912350406</v>
+        <v>270.5235912350411</v>
       </c>
       <c r="F31" t="n">
-        <v>221.7206350734452</v>
+        <v>221.7206350734456</v>
       </c>
       <c r="G31" t="n">
-        <v>156.7195369855552</v>
+        <v>156.7195369855556</v>
       </c>
       <c r="H31" t="n">
-        <v>103.166870518698</v>
+        <v>103.1668705186979</v>
       </c>
       <c r="I31" t="n">
         <v>69.88760064527843</v>
@@ -6625,7 +6625,7 @@
         <v>291.9921247617372</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245889</v>
+        <v>529.3237911245888</v>
       </c>
       <c r="M31" t="n">
         <v>785.9504604715257</v>
@@ -6637,34 +6637,34 @@
         <v>1275.583592905267</v>
       </c>
       <c r="P31" t="n">
-        <v>1468.728679813019</v>
+        <v>1468.728679813018</v>
       </c>
       <c r="Q31" t="n">
         <v>1552.347655190349</v>
       </c>
       <c r="R31" t="n">
-        <v>1517.337638659666</v>
+        <v>1517.337638659665</v>
       </c>
       <c r="S31" t="n">
         <v>1411.504706417248</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.032973080711</v>
+        <v>1283.032973080712</v>
       </c>
       <c r="U31" t="n">
         <v>1099.533575204164</v>
       </c>
       <c r="V31" t="n">
-        <v>942.4759695752142</v>
+        <v>942.4759695752144</v>
       </c>
       <c r="W31" t="n">
-        <v>759.9972669052408</v>
+        <v>759.9972669052411</v>
       </c>
       <c r="X31" t="n">
-        <v>632.4225016132441</v>
+        <v>632.4225016132443</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.0650416181486</v>
+        <v>514.0650416181491</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.721751081554</v>
+        <v>1783.721751081555</v>
       </c>
       <c r="C32" t="n">
         <v>1508.081553948929</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.551150710719</v>
+        <v>1241.55115071072</v>
       </c>
       <c r="E32" t="n">
-        <v>953.058992351393</v>
+        <v>953.0589923513935</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961304</v>
+        <v>645.2013631961308</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378165</v>
+        <v>335.928098737817</v>
       </c>
       <c r="H32" t="n">
         <v>114.9015813824002</v>
       </c>
       <c r="I32" t="n">
-        <v>69.08682634264392</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="J32" t="n">
         <v>289.9472632282855</v>
       </c>
       <c r="K32" t="n">
-        <v>701.2350477679915</v>
+        <v>701.2350477679917</v>
       </c>
       <c r="L32" t="n">
         <v>1236.379821986922</v>
       </c>
       <c r="M32" t="n">
-        <v>1826.241019050418</v>
+        <v>1722.06269939039</v>
       </c>
       <c r="N32" t="n">
-        <v>2402.690244441881</v>
+        <v>2298.511924781852</v>
       </c>
       <c r="O32" t="n">
         <v>2796.399279376162</v>
       </c>
       <c r="P32" t="n">
-        <v>3150.463119678942</v>
+        <v>3204.441691711097</v>
       </c>
       <c r="Q32" t="n">
         <v>3405.926644482318</v>
       </c>
       <c r="R32" t="n">
-        <v>3454.341317132196</v>
+        <v>3454.341317132195</v>
       </c>
       <c r="S32" t="n">
         <v>3385.646449397036</v>
@@ -6743,7 +6743,7 @@
         <v>2358.720022954602</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.471729065006</v>
+        <v>2071.471729065007</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>127.5737654525652</v>
       </c>
       <c r="I33" t="n">
-        <v>69.08682634264392</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="J33" t="n">
-        <v>155.9542028133219</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="K33" t="n">
-        <v>430.9310042297188</v>
+        <v>344.0636277590409</v>
       </c>
       <c r="L33" t="n">
-        <v>857.9147243387647</v>
+        <v>771.0473478680867</v>
       </c>
       <c r="M33" t="n">
-        <v>1414.321101083452</v>
+        <v>1327.453724612774</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.578916667089</v>
+        <v>1911.981425518315</v>
       </c>
       <c r="O33" t="n">
-        <v>2000.799334672978</v>
+        <v>2194.52804370759</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.685087522882</v>
+        <v>2550.413796557495</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.413796557495</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.0755583901856</v>
+        <v>415.0755583901854</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864329</v>
+        <v>351.7531503864327</v>
       </c>
       <c r="D34" t="n">
-        <v>304.9748187487626</v>
+        <v>304.9748187487623</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446483</v>
+        <v>259.2593660446482</v>
       </c>
       <c r="F34" t="n">
-        <v>213.0722726049924</v>
+        <v>213.0722726049923</v>
       </c>
       <c r="G34" t="n">
-        <v>150.6870372390418</v>
+        <v>150.6870372390417</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412393</v>
+        <v>99.75023349412388</v>
       </c>
       <c r="I34" t="n">
-        <v>69.08682634264392</v>
+        <v>69.0868263426439</v>
       </c>
       <c r="J34" t="n">
         <v>131.0993316713333</v>
       </c>
       <c r="K34" t="n">
-        <v>296.3189645666483</v>
+        <v>296.3189645666484</v>
       </c>
       <c r="L34" t="n">
-        <v>536.2144379832724</v>
+        <v>473.850178002058</v>
       </c>
       <c r="M34" t="n">
-        <v>795.4049143839823</v>
+        <v>733.0406544027678</v>
       </c>
       <c r="N34" t="n">
-        <v>1054.144005635864</v>
+        <v>991.7797456546498</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.165660925269</v>
+        <v>1227.801400944055</v>
       </c>
       <c r="P34" t="n">
-        <v>1485.874554886794</v>
+        <v>1423.510294905579</v>
       </c>
       <c r="Q34" t="n">
         <v>1509.693077336683</v>
@@ -6892,16 +6892,16 @@
         <v>1067.342448238256</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312457</v>
+        <v>912.9007053312455</v>
       </c>
       <c r="W34" t="n">
-        <v>733.0378653832117</v>
+        <v>733.0378653832115</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131545</v>
+        <v>608.0789628131542</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399985</v>
+        <v>492.3373655399982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1432.622392258137</v>
+        <v>1432.622392258136</v>
       </c>
       <c r="C35" t="n">
-        <v>1205.401451068238</v>
+        <v>1205.401451068237</v>
       </c>
       <c r="D35" t="n">
-        <v>987.2903037727549</v>
+        <v>987.2903037727538</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561551</v>
+        <v>747.2174013561539</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436187</v>
+        <v>487.7790281436176</v>
       </c>
       <c r="G35" t="n">
-        <v>226.9250196280298</v>
+        <v>226.9250196280299</v>
       </c>
       <c r="H35" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I35" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J35" t="n">
         <v>170.9998754409518</v>
@@ -6941,7 +6941,7 @@
         <v>478.1093403206289</v>
       </c>
       <c r="L35" t="n">
-        <v>909.0757948795299</v>
+        <v>909.0757948795301</v>
       </c>
       <c r="M35" t="n">
         <v>1394.758672282998</v>
@@ -6953,13 +6953,13 @@
         <v>2260.738612948712</v>
       </c>
       <c r="P35" t="n">
-        <v>2564.602705623617</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q35" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R35" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S35" t="n">
         <v>2695.612298974532</v>
@@ -6971,16 +6971,16 @@
         <v>2528.188044538815</v>
       </c>
       <c r="V35" t="n">
-        <v>2345.92158791205</v>
+        <v>2345.921587912049</v>
       </c>
       <c r="W35" t="n">
         <v>2138.099475246944</v>
       </c>
       <c r="X35" t="n">
-        <v>1910.782152245731</v>
+        <v>1910.78215224573</v>
       </c>
       <c r="Y35" t="n">
-        <v>1671.953114298863</v>
+        <v>1671.953114298862</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I36" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J36" t="n">
         <v>141.1851346860173</v>
@@ -7020,16 +7020,16 @@
         <v>416.1619361024142</v>
       </c>
       <c r="L36" t="n">
-        <v>843.1456562114599</v>
+        <v>741.761523739461</v>
       </c>
       <c r="M36" t="n">
-        <v>1399.552032956147</v>
+        <v>1298.167900484149</v>
       </c>
       <c r="N36" t="n">
-        <v>1984.079733861688</v>
+        <v>1882.695601389689</v>
       </c>
       <c r="O36" t="n">
-        <v>1986.030266545673</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="P36" t="n">
         <v>2341.916019395578</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.70443750178093</v>
+        <v>85.70443750178129</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80128544075468</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="D37" t="n">
-        <v>70.80128544075468</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="E37" t="n">
-        <v>70.80128544075468</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="F37" t="n">
-        <v>70.80128544075468</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="G37" t="n">
-        <v>56.83530601753062</v>
+        <v>56.83530601753074</v>
       </c>
       <c r="H37" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I37" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J37" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K37" t="n">
         <v>115.3590714506253</v>
@@ -7102,7 +7102,7 @@
         <v>251.0762252072203</v>
       </c>
       <c r="M37" t="n">
-        <v>406.088381947901</v>
+        <v>406.0883819479011</v>
       </c>
       <c r="N37" t="n">
         <v>560.6491535397539</v>
@@ -7117,28 +7117,28 @@
         <v>784.0230634706251</v>
       </c>
       <c r="R37" t="n">
-        <v>760.5737550977224</v>
+        <v>784.0230634706251</v>
       </c>
       <c r="S37" t="n">
-        <v>705.775941519971</v>
+        <v>729.2252498928735</v>
       </c>
       <c r="T37" t="n">
-        <v>628.3393268481002</v>
+        <v>651.7886352210026</v>
       </c>
       <c r="U37" t="n">
-        <v>495.8750476362189</v>
+        <v>519.3243560091212</v>
       </c>
       <c r="V37" t="n">
-        <v>389.852560671935</v>
+        <v>413.3018690448371</v>
       </c>
       <c r="W37" t="n">
-        <v>258.4089766666276</v>
+        <v>281.8582850395296</v>
       </c>
       <c r="X37" t="n">
-        <v>181.8693300392968</v>
+        <v>205.3186384121987</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.5469887088673</v>
+        <v>114.5469887088678</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1432.622392258136</v>
+        <v>1432.622392258137</v>
       </c>
       <c r="C38" t="n">
-        <v>1205.401451068237</v>
+        <v>1205.401451068238</v>
       </c>
       <c r="D38" t="n">
-        <v>987.2903037727538</v>
+        <v>987.2903037727544</v>
       </c>
       <c r="E38" t="n">
-        <v>747.217401356154</v>
+        <v>747.2174013561546</v>
       </c>
       <c r="F38" t="n">
-        <v>487.7790281436178</v>
+        <v>487.7790281436182</v>
       </c>
       <c r="G38" t="n">
-        <v>226.9250196280298</v>
+        <v>226.9250196280299</v>
       </c>
       <c r="H38" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="I38" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J38" t="n">
-        <v>170.9998754409518</v>
+        <v>170.9998754409532</v>
       </c>
       <c r="K38" t="n">
-        <v>478.1093403206289</v>
+        <v>478.1093403206302</v>
       </c>
       <c r="L38" t="n">
-        <v>909.0757948795299</v>
+        <v>909.0757948795313</v>
       </c>
       <c r="M38" t="n">
-        <v>1394.758672282998</v>
+        <v>1394.758672282999</v>
       </c>
       <c r="N38" t="n">
-        <v>1867.029578014431</v>
+        <v>1867.029578014432</v>
       </c>
       <c r="O38" t="n">
-        <v>2260.738612948712</v>
+        <v>2260.738612948713</v>
       </c>
       <c r="P38" t="n">
-        <v>2564.602705623617</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q38" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R38" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.612298974531</v>
+        <v>2695.612298974533</v>
       </c>
       <c r="T38" t="n">
-        <v>2628.317590503293</v>
+        <v>2628.317590503294</v>
       </c>
       <c r="U38" t="n">
-        <v>2528.188044538815</v>
+        <v>2528.188044538816</v>
       </c>
       <c r="V38" t="n">
         <v>2345.92158791205</v>
       </c>
       <c r="W38" t="n">
-        <v>2138.099475246944</v>
+        <v>2138.099475246945</v>
       </c>
       <c r="X38" t="n">
         <v>1910.782152245731</v>
       </c>
       <c r="Y38" t="n">
-        <v>1671.953114298862</v>
+        <v>1671.953114298863</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F39" t="n">
         <v>338.4079093710687</v>
@@ -7248,28 +7248,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I39" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J39" t="n">
         <v>141.1851346860173</v>
       </c>
       <c r="K39" t="n">
-        <v>141.1851346860173</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L39" t="n">
-        <v>568.1688547950631</v>
+        <v>843.1456562114601</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.575231539751</v>
+        <v>1399.552032956148</v>
       </c>
       <c r="N39" t="n">
-        <v>1709.102932445291</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.32335045118</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P39" t="n">
-        <v>2524.209103301085</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.64472843019</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.70443750178119</v>
+        <v>85.7044375017813</v>
       </c>
       <c r="C40" t="n">
-        <v>70.80128544075485</v>
+        <v>70.80128544075494</v>
       </c>
       <c r="D40" t="n">
-        <v>70.80128544075485</v>
+        <v>70.80128544075494</v>
       </c>
       <c r="E40" t="n">
-        <v>70.80128544075485</v>
+        <v>70.80128544075494</v>
       </c>
       <c r="F40" t="n">
-        <v>70.80128544075485</v>
+        <v>70.80128544075494</v>
       </c>
       <c r="G40" t="n">
-        <v>56.8353060175307</v>
+        <v>56.83530601753076</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="I40" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J40" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="K40" t="n">
         <v>115.3590714506253</v>
       </c>
       <c r="L40" t="n">
-        <v>251.0762252072203</v>
+        <v>251.0762252072204</v>
       </c>
       <c r="M40" t="n">
-        <v>406.088381947901</v>
+        <v>406.0883819479011</v>
       </c>
       <c r="N40" t="n">
         <v>560.6491535397539</v>
@@ -7351,31 +7351,31 @@
         <v>784.0230634706251</v>
       </c>
       <c r="Q40" t="n">
-        <v>784.0230634706251</v>
+        <v>765.6621439431018</v>
       </c>
       <c r="R40" t="n">
-        <v>784.0230634706251</v>
+        <v>765.6621439431018</v>
       </c>
       <c r="S40" t="n">
-        <v>729.2252498928736</v>
+        <v>710.8643303653503</v>
       </c>
       <c r="T40" t="n">
-        <v>651.7886352210028</v>
+        <v>628.3393268481011</v>
       </c>
       <c r="U40" t="n">
-        <v>495.8750476362196</v>
+        <v>495.8750476362198</v>
       </c>
       <c r="V40" t="n">
-        <v>389.8525606719356</v>
+        <v>389.8525606719357</v>
       </c>
       <c r="W40" t="n">
-        <v>258.4089766666281</v>
+        <v>258.4089766666282</v>
       </c>
       <c r="X40" t="n">
-        <v>181.8693300392972</v>
+        <v>181.8693300392974</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.5469887088676</v>
+        <v>114.5469887088678</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1578.147823947086</v>
+        <v>1263.331040724513</v>
       </c>
       <c r="C41" t="n">
-        <v>1329.765463815484</v>
+        <v>1014.948680592911</v>
       </c>
       <c r="D41" t="n">
-        <v>1090.492897578298</v>
+        <v>791.3361873853261</v>
       </c>
       <c r="E41" t="n">
-        <v>829.2585762199956</v>
+        <v>530.1018660270233</v>
       </c>
       <c r="F41" t="n">
-        <v>548.6587840657562</v>
+        <v>530.1018660270233</v>
       </c>
       <c r="G41" t="n">
-        <v>266.6433566084657</v>
+        <v>248.0864385697329</v>
       </c>
       <c r="H41" t="n">
-        <v>72.87467625407214</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="I41" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J41" t="n">
-        <v>170.9998754409517</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K41" t="n">
-        <v>478.1093403206285</v>
+        <v>478.1093403206302</v>
       </c>
       <c r="L41" t="n">
-        <v>909.0757948795294</v>
+        <v>909.0757948795313</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.758672282997</v>
+        <v>1394.758672282999</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.02957801443</v>
+        <v>1867.029578014432</v>
       </c>
       <c r="O41" t="n">
-        <v>2260.738612948711</v>
+        <v>2260.738612948713</v>
       </c>
       <c r="P41" t="n">
-        <v>2564.602705623617</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q41" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R41" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S41" t="n">
-        <v>2674.450880032829</v>
+        <v>2674.45088003283</v>
       </c>
       <c r="T41" t="n">
-        <v>2585.994752619887</v>
+        <v>2585.994752619888</v>
       </c>
       <c r="U41" t="n">
-        <v>2550.537039329472</v>
+        <v>2464.703787713707</v>
       </c>
       <c r="V41" t="n">
-        <v>2347.109163761003</v>
+        <v>2261.275912145239</v>
       </c>
       <c r="W41" t="n">
-        <v>2347.109163761003</v>
+        <v>2032.29238053843</v>
       </c>
       <c r="X41" t="n">
-        <v>2098.630421818087</v>
+        <v>1783.813638595514</v>
       </c>
       <c r="Y41" t="n">
-        <v>1838.639964929515</v>
+        <v>1523.823181706942</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F42" t="n">
         <v>338.4079093710687</v>
@@ -7485,28 +7485,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I42" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J42" t="n">
-        <v>54.31775821533928</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K42" t="n">
-        <v>329.2945596317362</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="L42" t="n">
-        <v>756.278279740782</v>
+        <v>568.1688547950631</v>
       </c>
       <c r="M42" t="n">
-        <v>1312.68465648547</v>
+        <v>1124.575231539751</v>
       </c>
       <c r="N42" t="n">
-        <v>1897.21235739101</v>
+        <v>1709.102932445291</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.432775396899</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.64472843019</v>
@@ -7552,40 +7552,40 @@
         <v>153.9165656163408</v>
       </c>
       <c r="E43" t="n">
-        <v>135.45894991325</v>
+        <v>135.4589499132501</v>
       </c>
       <c r="F43" t="n">
         <v>116.5296934746175</v>
       </c>
       <c r="G43" t="n">
-        <v>81.40229510969031</v>
+        <v>81.40229510969034</v>
       </c>
       <c r="H43" t="n">
-        <v>57.72332836579588</v>
+        <v>57.72332836579591</v>
       </c>
       <c r="I43" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J43" t="n">
-        <v>143.0456695887318</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="K43" t="n">
-        <v>334.9807085287498</v>
+        <v>115.3590714506253</v>
       </c>
       <c r="L43" t="n">
-        <v>470.6978622853449</v>
+        <v>251.0762252072204</v>
       </c>
       <c r="M43" t="n">
-        <v>625.7100190260255</v>
+        <v>406.0883819479011</v>
       </c>
       <c r="N43" t="n">
-        <v>780.2707906178783</v>
+        <v>560.6491535397539</v>
       </c>
       <c r="O43" t="n">
-        <v>912.1141262472543</v>
+        <v>723.4761287109702</v>
       </c>
       <c r="P43" t="n">
-        <v>1058.798617193004</v>
+        <v>945.9004287171975</v>
       </c>
       <c r="Q43" t="n">
         <v>1058.798617193004</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1578.147823947087</v>
+        <v>1311.208545776752</v>
       </c>
       <c r="C44" t="n">
-        <v>1329.765463815484</v>
+        <v>1311.208545776752</v>
       </c>
       <c r="D44" t="n">
-        <v>1090.492897578298</v>
+        <v>1071.935979539566</v>
       </c>
       <c r="E44" t="n">
-        <v>829.2585762199956</v>
+        <v>810.7016581812632</v>
       </c>
       <c r="F44" t="n">
-        <v>548.6587840657562</v>
+        <v>530.1018660270238</v>
       </c>
       <c r="G44" t="n">
-        <v>266.6433566084658</v>
+        <v>248.0864385697329</v>
       </c>
       <c r="H44" t="n">
-        <v>72.8746762540722</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="I44" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J44" t="n">
-        <v>170.9998754409514</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206284</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L44" t="n">
-        <v>909.0757948795294</v>
+        <v>909.0757948795299</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.758672282997</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.02957801443</v>
+        <v>1867.029578014432</v>
       </c>
       <c r="O44" t="n">
-        <v>2260.738612948711</v>
+        <v>2260.738612948713</v>
       </c>
       <c r="P44" t="n">
-        <v>2564.602705623617</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q44" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R44" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S44" t="n">
-        <v>2674.450880032829</v>
+        <v>2674.45088003283</v>
       </c>
       <c r="T44" t="n">
-        <v>2585.994752619887</v>
+        <v>2585.994752619888</v>
       </c>
       <c r="U44" t="n">
-        <v>2519.530114047709</v>
+        <v>2464.703787713707</v>
       </c>
       <c r="V44" t="n">
-        <v>2316.10223847924</v>
+        <v>2261.275912145239</v>
       </c>
       <c r="W44" t="n">
-        <v>2087.118706872432</v>
+        <v>2032.29238053843</v>
       </c>
       <c r="X44" t="n">
-        <v>1838.639964929515</v>
+        <v>1783.813638595514</v>
       </c>
       <c r="Y44" t="n">
-        <v>1838.639964929515</v>
+        <v>1571.700686759181</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F45" t="n">
         <v>338.4079093710687</v>
@@ -7722,28 +7722,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I45" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J45" t="n">
         <v>141.1851346860173</v>
       </c>
       <c r="K45" t="n">
-        <v>141.1851346860173</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1688547950631</v>
+        <v>843.1456562114601</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.575231539751</v>
+        <v>942.2821476342436</v>
       </c>
       <c r="N45" t="n">
-        <v>1709.102932445291</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.32335045118</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P45" t="n">
-        <v>2524.209103301085</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.64472843019</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5016312557173</v>
+        <v>209.5016312557171</v>
       </c>
       <c r="C46" t="n">
-        <v>173.4370602529879</v>
+        <v>173.4370602529877</v>
       </c>
       <c r="D46" t="n">
-        <v>153.916565616341</v>
+        <v>153.9165656163408</v>
       </c>
       <c r="E46" t="n">
         <v>135.4589499132501</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5296934746176</v>
+        <v>116.5296934746175</v>
       </c>
       <c r="G46" t="n">
-        <v>81.40229510969037</v>
+        <v>81.40229510969034</v>
       </c>
       <c r="H46" t="n">
         <v>57.72332836579591</v>
       </c>
       <c r="I46" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J46" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="K46" t="n">
-        <v>128.3471737635406</v>
+        <v>115.3590714506253</v>
       </c>
       <c r="L46" t="n">
-        <v>394.9580532248677</v>
+        <v>381.9699509119524</v>
       </c>
       <c r="M46" t="n">
-        <v>549.9702099655484</v>
+        <v>549.970209965548</v>
       </c>
       <c r="N46" t="n">
-        <v>704.5309815574012</v>
+        <v>704.5309815574008</v>
       </c>
       <c r="O46" t="n">
-        <v>836.3743171867771</v>
+        <v>967.2680428915088</v>
       </c>
       <c r="P46" t="n">
         <v>1058.798617193004</v>
@@ -7828,28 +7828,28 @@
         <v>1058.798617193004</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.662300385284</v>
+        <v>1053.662300385283</v>
       </c>
       <c r="S46" t="n">
-        <v>977.7030678658293</v>
+        <v>977.7030678658288</v>
       </c>
       <c r="T46" t="n">
-        <v>879.1050342522553</v>
+        <v>879.1050342522549</v>
       </c>
       <c r="U46" t="n">
-        <v>725.479336098671</v>
+        <v>725.4793360986705</v>
       </c>
       <c r="V46" t="n">
-        <v>598.2954301926839</v>
+        <v>598.2954301926835</v>
       </c>
       <c r="W46" t="n">
-        <v>445.6904272456733</v>
+        <v>445.6904272456729</v>
       </c>
       <c r="X46" t="n">
-        <v>347.9893616766394</v>
+        <v>347.9893616766391</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.5056014045068</v>
+        <v>259.5056014045065</v>
       </c>
     </row>
   </sheetData>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
         <v>188.4282512910011</v>
       </c>
       <c r="L8" t="n">
-        <v>201.569890946046</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>196.9644755630518</v>
@@ -8535,7 +8535,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1806808881021</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>125.4935813445713</v>
@@ -8550,7 +8550,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>123.3404387618468</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>121.5092506068868</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8693,10 +8693,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733891</v>
       </c>
       <c r="M11" t="n">
-        <v>402.3037729984857</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8778,16 +8778,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>356.9418782756183</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>50.13224200732062</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.41490937517759</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8936,13 +8936,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>539.3005197220167</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>389.0878386093648</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>123.1961493292428</v>
@@ -9009,13 +9009,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>215.8892405234959</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941921</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.41490937517763</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9167,13 +9167,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733902</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>386.4871811933832</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>165.3464244632075</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>356.9418782756176</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003187</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>520.1644974688018</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>339.2133745039982</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941912</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.41490937517761</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>357.1859402706336</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9653,7 +9653,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>236.274500080731</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>133.3262598689374</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>50.7957619156628</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>161.2563135941917</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>76.1735212246749</v>
+        <v>76.17352122467494</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>231.2726345404292</v>
       </c>
       <c r="N27" t="n">
-        <v>444.6867029934741</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.41490937517759</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.1735212246749</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130473</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>161.2563135941911</v>
+        <v>526.7554831770952</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>161.2563135941917</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>333.5626314066032</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517761</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10668,7 +10668,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>379.6842342763162</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10677,10 +10677,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>50.13224200732046</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767114</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236973</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>66.05046325130478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941914</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.96604586922319</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425155</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>327.8865868723674</v>
       </c>
       <c r="P42" t="n">
-        <v>235.5432155787733</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.41490937517761</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355808</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11376,13 +11376,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>66.05046325130478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225718</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.96604586922319</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115.0261334718408</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>275.4734992560195</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>80.13780376462131</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>256.2686590164737</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.4734992560194</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>171.0230889787432</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.1969408704529</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.7702359084507</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.94631158407874</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>230.9685595385168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.2686590164737</v>
+        <v>1.85480338135136</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="15">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>15.50347229930546</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>277.7937942326969</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>18.37134885834556</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>84.97491909960902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>226.6936962907405</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>245.8985365302862</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.37134885834556</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>54.27806307066403</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>257.3905523196859</v>
+        <v>47.39873000171619</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803720.7735682885</v>
+        <v>803720.7735682888</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803720.7735682888</v>
+        <v>803720.7735682885</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877906.1988054025</v>
+        <v>877906.1988054026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854958.0386542112</v>
+        <v>854958.0386542114</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854958.0386542112</v>
+        <v>854958.0386542114</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>631848.2209935259</v>
+      </c>
+      <c r="C2" t="n">
         <v>631848.220993526</v>
       </c>
-      <c r="C2" t="n">
-        <v>631848.2209935259</v>
-      </c>
       <c r="D2" t="n">
-        <v>633162.8922048763</v>
+        <v>633162.8922048765</v>
       </c>
       <c r="E2" t="n">
-        <v>571971.5508158172</v>
+        <v>571971.5508158173</v>
       </c>
       <c r="F2" t="n">
-        <v>571971.5508158172</v>
+        <v>571971.5508158171</v>
       </c>
       <c r="G2" t="n">
-        <v>633289.8499077008</v>
+        <v>633289.8499077009</v>
       </c>
       <c r="H2" t="n">
-        <v>633289.8499077004</v>
+        <v>633289.8499077007</v>
       </c>
       <c r="I2" t="n">
-        <v>633289.849907701</v>
+        <v>633289.8499077007</v>
       </c>
       <c r="J2" t="n">
         <v>633289.8499077009</v>
       </c>
       <c r="K2" t="n">
-        <v>633289.849907701</v>
+        <v>633289.8499077007</v>
       </c>
       <c r="L2" t="n">
         <v>633289.8499076999</v>
       </c>
       <c r="M2" t="n">
-        <v>633289.8499076997</v>
+        <v>633289.8499076995</v>
       </c>
       <c r="N2" t="n">
-        <v>633289.8499076999</v>
+        <v>633289.8499077001</v>
       </c>
       <c r="O2" t="n">
         <v>612822.5719350163</v>
       </c>
       <c r="P2" t="n">
-        <v>612822.5719350162</v>
+        <v>612822.5719350164</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>374397.5836627405</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>50616.42829746711</v>
+        <v>50616.42829746712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>94448.75405589247</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.19157324316</v>
+        <v>52688.1915732432</v>
       </c>
       <c r="M3" t="n">
         <v>147591.2452609263</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030507</v>
+        <v>14736.46536030509</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,10 +26454,10 @@
         <v>308721.7754218914</v>
       </c>
       <c r="O4" t="n">
-        <v>294647.3685653065</v>
+        <v>294647.3685653066</v>
       </c>
       <c r="P4" t="n">
-        <v>294647.3685653065</v>
+        <v>294647.3685653066</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>49998.56587267925</v>
       </c>
       <c r="F5" t="n">
-        <v>49998.56587267923</v>
+        <v>49998.56587267925</v>
       </c>
       <c r="G5" t="n">
-        <v>55317.65651085394</v>
+        <v>55317.65651085395</v>
       </c>
       <c r="H5" t="n">
-        <v>55317.65651085394</v>
+        <v>55317.65651085395</v>
       </c>
       <c r="I5" t="n">
         <v>55317.65651085394</v>
       </c>
       <c r="J5" t="n">
-        <v>64627.25466179928</v>
+        <v>64627.25466179926</v>
       </c>
       <c r="K5" t="n">
-        <v>64627.25466179928</v>
+        <v>64627.25466179926</v>
       </c>
       <c r="L5" t="n">
-        <v>64236.38002533607</v>
+        <v>64236.38002533605</v>
       </c>
       <c r="M5" t="n">
+        <v>57041.74109215512</v>
+      </c>
+      <c r="N5" t="n">
         <v>57041.74109215513</v>
       </c>
-      <c r="N5" t="n">
-        <v>57041.74109215512</v>
-      </c>
       <c r="O5" t="n">
-        <v>55280.51195643519</v>
+        <v>55280.51195643521</v>
       </c>
       <c r="P5" t="n">
-        <v>55280.51195643518</v>
+        <v>55280.51195643521</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196613.2145792183</v>
+        <v>196608.846006751</v>
       </c>
       <c r="C6" t="n">
-        <v>196613.2145792182</v>
+        <v>196608.8460067511</v>
       </c>
       <c r="D6" t="n">
-        <v>194358.8712573404</v>
+        <v>194358.4865370291</v>
       </c>
       <c r="E6" t="n">
-        <v>-121609.4018583608</v>
+        <v>-121795.2148859118</v>
       </c>
       <c r="F6" t="n">
-        <v>252788.1818043797</v>
+        <v>252602.3687768284</v>
       </c>
       <c r="G6" t="n">
         <v>215983.2239563605</v>
       </c>
       <c r="H6" t="n">
-        <v>266599.6522538272</v>
+        <v>266599.6522538274</v>
       </c>
       <c r="I6" t="n">
-        <v>266599.6522538278</v>
+        <v>266599.6522538274</v>
       </c>
       <c r="J6" t="n">
-        <v>164468.6683236627</v>
+        <v>164468.6683236628</v>
       </c>
       <c r="K6" t="n">
-        <v>258917.4223795554</v>
+        <v>258917.4223795551</v>
       </c>
       <c r="L6" t="n">
-        <v>206673.718320439</v>
+        <v>206673.7183204389</v>
       </c>
       <c r="M6" t="n">
-        <v>119935.0881327268</v>
+        <v>119935.0881327267</v>
       </c>
       <c r="N6" t="n">
-        <v>267526.3333936534</v>
+        <v>267526.3333936535</v>
       </c>
       <c r="O6" t="n">
-        <v>248158.2260529695</v>
+        <v>248096.2039985068</v>
       </c>
       <c r="P6" t="n">
-        <v>262894.6914132746</v>
+        <v>262832.6693588119</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="J2" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="K2" t="n">
         <v>102.6409218245012</v>
@@ -26716,7 +26716,7 @@
         <v>105.2306259192213</v>
       </c>
       <c r="M2" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="N2" t="n">
         <v>153.1656893025204</v>
@@ -26747,7 +26747,7 @@
         <v>132.2825006662239</v>
       </c>
       <c r="F3" t="n">
-        <v>132.2825006662237</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="G3" t="n">
         <v>132.2825006662238</v>
@@ -26759,7 +26759,7 @@
         <v>132.2825006662238</v>
       </c>
       <c r="J3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.2825006662237</v>
       </c>
       <c r="K3" t="n">
         <v>132.2825006662239</v>
@@ -26799,37 +26799,37 @@
         <v>632.9915740344009</v>
       </c>
       <c r="F4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="G4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="H4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="I4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344006</v>
       </c>
       <c r="J4" t="n">
-        <v>873.5950080659803</v>
+        <v>873.5950080659802</v>
       </c>
       <c r="K4" t="n">
-        <v>873.5950080659803</v>
+        <v>873.5950080659802</v>
       </c>
       <c r="L4" t="n">
-        <v>863.585329283049</v>
+        <v>863.5853292830488</v>
       </c>
       <c r="M4" t="n">
-        <v>678.971977691741</v>
+        <v>678.9719776917411</v>
       </c>
       <c r="N4" t="n">
-        <v>678.971977691741</v>
+        <v>678.9719776917414</v>
       </c>
       <c r="O4" t="n">
-        <v>678.971977691741</v>
+        <v>678.9719776917414</v>
       </c>
       <c r="P4" t="n">
-        <v>678.971977691741</v>
+        <v>678.9719776917414</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>63.27053537183389</v>
+        <v>63.2705353718339</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>39.37038645266732</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655395</v>
+        <v>65.86023946655399</v>
       </c>
       <c r="M2" t="n">
-        <v>47.93506338329925</v>
+        <v>47.93506338329911</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.42058170038133</v>
+        <v>18.42058170038136</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.3685436601615</v>
+        <v>438.3685436601618</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>63.27053537183389</v>
+        <v>63.2705353718339</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>39.37038645266732</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27856,7 +27856,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>360.2792000530427</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>79.72222485617382</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>212.1056780233676</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>50.36990114399772</v>
       </c>
       <c r="S9" t="n">
-        <v>142.4549670453812</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>206.3001656947416</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>141.6723990242884</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28062,22 +28062,22 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>210.9982821476397</v>
       </c>
     </row>
     <row r="11">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="C14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="D14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="E14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="F14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="G14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="I14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.3269161718703</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="T14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="U14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="V14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="W14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="X14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="C16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="D16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="E16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="F16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="G16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="H16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="I16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="J16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="K16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="L16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="M16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="N16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="O16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="P16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="R16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="S16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="T16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="U16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="V16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="W16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="X16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="I17" t="n">
         <v>150.58723340858</v>
@@ -28612,25 +28612,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
     </row>
     <row r="18">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="H19" t="n">
         <v>155.6580616266899</v>
@@ -28767,28 +28767,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6771458789036</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9114571963351</v>
+        <v>12.74659064484558</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="I20" t="n">
         <v>150.58723340858</v>
@@ -28849,25 +28849,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="C22" t="n">
-        <v>12.74659064484581</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="H22" t="n">
         <v>155.6580616266899</v>
@@ -29004,28 +29004,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R22" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9114571963351</v>
+        <v>150.0474288347236</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="I23" t="n">
         <v>150.58723340858</v>
@@ -29086,25 +29086,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.913225216616411e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,13 +29208,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="H25" t="n">
-        <v>138.0805940743871</v>
+        <v>155.6580616266899</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>135.5873989991865</v>
       </c>
       <c r="J25" t="n">
         <v>42.59173164781782</v>
@@ -29241,28 +29241,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R25" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9114571963351</v>
+        <v>150.0474288347235</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9114571963351</v>
+        <v>165.9114571963352</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="C26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="D26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="E26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="F26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="G26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="I26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="J26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="K26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="L26" t="n">
-        <v>5.828106290019605</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="M26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="N26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="O26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="P26" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290019832</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="R26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="S26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="T26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="U26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="V26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="W26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="X26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="C28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="D28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="E28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="F28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="G28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="H28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="I28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="J28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="K28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="L28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="M28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="N28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="O28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="P28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="R28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="S28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="T28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="U28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="V28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="W28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="X28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245013</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K29" t="n">
-        <v>102.6409218245012</v>
+        <v>52.14211194264999</v>
       </c>
       <c r="L29" t="n">
         <v>102.6409218245012</v>
@@ -29548,7 +29548,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="O29" t="n">
-        <v>5.828106290019605</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="P29" t="n">
         <v>102.6409218245012</v>
@@ -29557,7 +29557,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="R29" t="n">
-        <v>102.6409218245012</v>
+        <v>56.32691617187025</v>
       </c>
       <c r="S29" t="n">
         <v>102.6409218245012</v>
@@ -29779,19 +29779,19 @@
         <v>105.2306259192213</v>
       </c>
       <c r="M32" t="n">
-        <v>105.2306259192213</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>105.2306259192213</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="P32" t="n">
-        <v>50.70681578573232</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.2306259192213</v>
+        <v>50.70681578573166</v>
       </c>
       <c r="R32" t="n">
         <v>105.2306259192213</v>
@@ -29934,7 +29934,7 @@
         <v>105.2306259192213</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2306259192213</v>
+        <v>42.23642391799441</v>
       </c>
       <c r="M34" t="n">
         <v>105.2306259192213</v>
@@ -29949,7 +29949,7 @@
         <v>105.2306259192213</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.23642391799508</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="R34" t="n">
         <v>105.2306259192213</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="E35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="F35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="G35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I35" t="n">
         <v>150.58723340858</v>
@@ -30034,25 +30034,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="U35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="Y35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I37" t="n">
         <v>135.5873989991865</v>
@@ -30189,28 +30189,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R37" t="n">
-        <v>114.0860229007043</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1656893025205</v>
+        <v>129.950874013348</v>
       </c>
     </row>
     <row r="38">
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.17731033224807</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.300838189878</v>
@@ -30432,10 +30432,10 @@
         <v>153.1656893025204</v>
       </c>
       <c r="T40" t="n">
+        <v>148.128184345596</v>
+      </c>
+      <c r="U40" t="n">
         <v>153.1656893025204</v>
-      </c>
-      <c r="U40" t="n">
-        <v>129.9508740133476</v>
       </c>
       <c r="V40" t="n">
         <v>153.1656893025204</v>
@@ -30639,28 +30639,28 @@
         <v>132.2158845502344</v>
       </c>
       <c r="J43" t="n">
+        <v>42.59173164781782</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>31.29660559781854</v>
+      </c>
+      <c r="P43" t="n">
         <v>132.2158845502344</v>
       </c>
-      <c r="K43" t="n">
+      <c r="Q43" t="n">
         <v>132.2158845502344</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>55.71102691338838</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>18.17731033224807</v>
       </c>
       <c r="R43" t="n">
         <v>132.2158845502344</v>
@@ -30879,22 +30879,22 @@
         <v>42.59173164781782</v>
       </c>
       <c r="K46" t="n">
-        <v>13.11929526557104</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>132.2158845502344</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>13.11929526557051</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="P46" t="n">
-        <v>132.2158845502344</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>18.17731033224807</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.531788947401904</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H14" t="n">
-        <v>5.446183557579751</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I14" t="n">
-        <v>20.50179339471192</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J14" t="n">
-        <v>45.13492217455239</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K14" t="n">
-        <v>67.645548318075</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L14" t="n">
-        <v>83.92028431712603</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M14" t="n">
-        <v>93.37748601048463</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N14" t="n">
-        <v>94.8884313572903</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O14" t="n">
-        <v>89.60045501156262</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P14" t="n">
-        <v>76.4719153725781</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.42722369374739</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R14" t="n">
-        <v>33.40498746723488</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S14" t="n">
         <v>12.1181406389209</v>
       </c>
       <c r="T14" t="n">
-        <v>2.327906117251836</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04254311579215231</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2845321712443303</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H15" t="n">
-        <v>2.747981759122874</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I15" t="n">
-        <v>9.796392738017513</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J15" t="n">
-        <v>26.88205044199175</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K15" t="n">
-        <v>45.94570591536188</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L15" t="n">
-        <v>61.77967165548496</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M15" t="n">
-        <v>72.09396286309192</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N15" t="n">
-        <v>74.00207553779623</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O15" t="n">
-        <v>67.69744163811923</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.33316522647215</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.32028206971486</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R15" t="n">
         <v>17.66595357953834</v>
       </c>
       <c r="S15" t="n">
-        <v>5.285060286051482</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T15" t="n">
-        <v>1.146864321813769</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01871922179239015</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2385422143161411</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H16" t="n">
-        <v>2.120857141828965</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I16" t="n">
-        <v>7.173614954161772</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J16" t="n">
-        <v>16.86493455215117</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K16" t="n">
-        <v>27.7142681723662</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L16" t="n">
-        <v>35.46472157205611</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M16" t="n">
-        <v>37.39257637684746</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N16" t="n">
-        <v>36.50346448712369</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O16" t="n">
-        <v>33.71685771079421</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P16" t="n">
-        <v>28.85059653874491</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97465760059978</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R16" t="n">
         <v>10.72572538188758</v>
       </c>
       <c r="S16" t="n">
-        <v>4.15714022585493</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T16" t="n">
         <v>1.01922582480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01301139350815316</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5317889474019047</v>
+        <v>0.5317889474019039</v>
       </c>
       <c r="H26" t="n">
-        <v>5.446183557579759</v>
+        <v>5.446183557579749</v>
       </c>
       <c r="I26" t="n">
-        <v>20.50179339471195</v>
+        <v>20.50179339471192</v>
       </c>
       <c r="J26" t="n">
-        <v>45.13492217455246</v>
+        <v>45.13492217455238</v>
       </c>
       <c r="K26" t="n">
-        <v>67.6455483180751</v>
+        <v>67.64554831807499</v>
       </c>
       <c r="L26" t="n">
-        <v>83.92028431712616</v>
+        <v>83.92028431712602</v>
       </c>
       <c r="M26" t="n">
-        <v>93.37748601048477</v>
+        <v>93.37748601048462</v>
       </c>
       <c r="N26" t="n">
-        <v>94.88843135729044</v>
+        <v>94.88843135729029</v>
       </c>
       <c r="O26" t="n">
-        <v>89.60045501156276</v>
+        <v>89.6004550115626</v>
       </c>
       <c r="P26" t="n">
-        <v>76.47191537257821</v>
+        <v>76.47191537257808</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.42722369374749</v>
+        <v>57.42722369374739</v>
       </c>
       <c r="R26" t="n">
-        <v>33.40498746723493</v>
+        <v>33.40498746723487</v>
       </c>
       <c r="S26" t="n">
-        <v>12.11814063892092</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T26" t="n">
-        <v>2.327906117251839</v>
+        <v>2.327906117251835</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04254311579215237</v>
+        <v>0.0425431157921523</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2845321712443307</v>
+        <v>0.2845321712443302</v>
       </c>
       <c r="H27" t="n">
-        <v>2.747981759122879</v>
+        <v>2.747981759122874</v>
       </c>
       <c r="I27" t="n">
-        <v>9.796392738017527</v>
+        <v>9.796392738017509</v>
       </c>
       <c r="J27" t="n">
-        <v>26.88205044199179</v>
+        <v>26.88205044199174</v>
       </c>
       <c r="K27" t="n">
-        <v>45.94570591536194</v>
+        <v>45.94570591536186</v>
       </c>
       <c r="L27" t="n">
-        <v>61.77967165548505</v>
+        <v>61.77967165548495</v>
       </c>
       <c r="M27" t="n">
-        <v>72.09396286309202</v>
+        <v>72.0939628630919</v>
       </c>
       <c r="N27" t="n">
-        <v>74.00207553779634</v>
+        <v>74.00207553779622</v>
       </c>
       <c r="O27" t="n">
-        <v>67.69744163811933</v>
+        <v>67.6974416381192</v>
       </c>
       <c r="P27" t="n">
-        <v>54.33316522647224</v>
+        <v>54.33316522647215</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.32028206971491</v>
+        <v>36.32028206971486</v>
       </c>
       <c r="R27" t="n">
-        <v>17.66595357953836</v>
+        <v>17.66595357953833</v>
       </c>
       <c r="S27" t="n">
-        <v>5.28506028605149</v>
+        <v>5.285060286051481</v>
       </c>
       <c r="T27" t="n">
-        <v>1.146864321813771</v>
+        <v>1.146864321813769</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01871922179239018</v>
+        <v>0.01871922179239015</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2385422143161414</v>
+        <v>0.238542214316141</v>
       </c>
       <c r="H28" t="n">
-        <v>2.120857141828968</v>
+        <v>2.120857141828965</v>
       </c>
       <c r="I28" t="n">
-        <v>7.173614954161783</v>
+        <v>7.173614954161771</v>
       </c>
       <c r="J28" t="n">
-        <v>16.8649345521512</v>
+        <v>16.86493455215117</v>
       </c>
       <c r="K28" t="n">
-        <v>27.71426817236625</v>
+        <v>27.7142681723662</v>
       </c>
       <c r="L28" t="n">
-        <v>35.46472157205616</v>
+        <v>35.4647215720561</v>
       </c>
       <c r="M28" t="n">
-        <v>37.39257637684752</v>
+        <v>37.39257637684745</v>
       </c>
       <c r="N28" t="n">
-        <v>36.50346448712374</v>
+        <v>36.50346448712368</v>
       </c>
       <c r="O28" t="n">
-        <v>33.71685771079426</v>
+        <v>33.7168577107942</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85059653874495</v>
+        <v>28.8505965387449</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.97465760059981</v>
+        <v>19.97465760059978</v>
       </c>
       <c r="R28" t="n">
-        <v>10.72572538188759</v>
+        <v>10.72572538188757</v>
       </c>
       <c r="S28" t="n">
-        <v>4.157140225854937</v>
+        <v>4.157140225854929</v>
       </c>
       <c r="T28" t="n">
-        <v>1.019225824805331</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01301139350815319</v>
+        <v>0.01301139350815316</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5317889474019049</v>
+        <v>0.5317889474019047</v>
       </c>
       <c r="H29" t="n">
-        <v>5.44618355757976</v>
+        <v>5.446183557579759</v>
       </c>
       <c r="I29" t="n">
-        <v>20.50179339471196</v>
+        <v>20.50179339471195</v>
       </c>
       <c r="J29" t="n">
         <v>45.13492217455246</v>
       </c>
       <c r="K29" t="n">
-        <v>67.64554831807511</v>
+        <v>67.6455483180751</v>
       </c>
       <c r="L29" t="n">
-        <v>83.92028431712617</v>
+        <v>83.92028431712616</v>
       </c>
       <c r="M29" t="n">
-        <v>93.3774860104848</v>
+        <v>93.37748601048477</v>
       </c>
       <c r="N29" t="n">
-        <v>94.88843135729047</v>
+        <v>94.88843135729044</v>
       </c>
       <c r="O29" t="n">
-        <v>89.60045501156277</v>
+        <v>89.60045501156276</v>
       </c>
       <c r="P29" t="n">
-        <v>76.47191537257824</v>
+        <v>76.47191537257821</v>
       </c>
       <c r="Q29" t="n">
         <v>57.42722369374749</v>
       </c>
       <c r="R29" t="n">
-        <v>33.40498746723494</v>
+        <v>33.40498746723493</v>
       </c>
       <c r="S29" t="n">
         <v>12.11814063892092</v>
       </c>
       <c r="T29" t="n">
-        <v>2.32790611725184</v>
+        <v>2.327906117251839</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04254311579215238</v>
+        <v>0.04254311579215237</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>2.747981759122879</v>
       </c>
       <c r="I30" t="n">
-        <v>9.796392738017529</v>
+        <v>9.796392738017527</v>
       </c>
       <c r="J30" t="n">
-        <v>26.8820504419918</v>
+        <v>26.88205044199179</v>
       </c>
       <c r="K30" t="n">
-        <v>45.94570591536196</v>
+        <v>45.94570591536194</v>
       </c>
       <c r="L30" t="n">
-        <v>61.77967165548507</v>
+        <v>61.77967165548505</v>
       </c>
       <c r="M30" t="n">
-        <v>72.09396286309203</v>
+        <v>72.09396286309202</v>
       </c>
       <c r="N30" t="n">
-        <v>74.00207553779636</v>
+        <v>74.00207553779634</v>
       </c>
       <c r="O30" t="n">
-        <v>67.69744163811934</v>
+        <v>67.69744163811933</v>
       </c>
       <c r="P30" t="n">
-        <v>54.33316522647225</v>
+        <v>54.33316522647224</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.32028206971493</v>
+        <v>36.32028206971491</v>
       </c>
       <c r="R30" t="n">
-        <v>17.66595357953837</v>
+        <v>17.66595357953836</v>
       </c>
       <c r="S30" t="n">
-        <v>5.285060286051491</v>
+        <v>5.28506028605149</v>
       </c>
       <c r="T30" t="n">
         <v>1.146864321813771</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01871922179239019</v>
+        <v>0.01871922179239018</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2385422143161415</v>
+        <v>0.2385422143161414</v>
       </c>
       <c r="H31" t="n">
-        <v>2.120857141828969</v>
+        <v>2.120857141828968</v>
       </c>
       <c r="I31" t="n">
-        <v>7.173614954161785</v>
+        <v>7.173614954161783</v>
       </c>
       <c r="J31" t="n">
         <v>16.8649345521512</v>
@@ -33345,31 +33345,31 @@
         <v>27.71426817236625</v>
       </c>
       <c r="L31" t="n">
-        <v>35.46472157205617</v>
+        <v>35.46472157205616</v>
       </c>
       <c r="M31" t="n">
         <v>37.39257637684752</v>
       </c>
       <c r="N31" t="n">
-        <v>36.50346448712375</v>
+        <v>36.50346448712374</v>
       </c>
       <c r="O31" t="n">
-        <v>33.71685771079427</v>
+        <v>33.71685771079426</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85059653874496</v>
+        <v>28.85059653874495</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.97465760059982</v>
+        <v>19.97465760059981</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7257253818876</v>
+        <v>10.72572538188759</v>
       </c>
       <c r="S31" t="n">
         <v>4.157140225854937</v>
       </c>
       <c r="T31" t="n">
-        <v>1.019225824805332</v>
+        <v>1.019225824805331</v>
       </c>
       <c r="U31" t="n">
         <v>0.01301139350815319</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
         <v>9.605247316954339</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>10.00967878293136</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>10.00967878293136</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>310.2115806865426</v>
       </c>
       <c r="L11" t="n">
-        <v>435.3196510695971</v>
+        <v>253.2558305274007</v>
       </c>
       <c r="M11" t="n">
-        <v>308.5249445118114</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N11" t="n">
         <v>477.0413189206397</v>
@@ -35498,16 +35498,16 @@
         <v>562.026643176452</v>
       </c>
       <c r="N12" t="n">
-        <v>324.2288127457063</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O12" t="n">
-        <v>463.8590080867566</v>
+        <v>1.970235034328846</v>
       </c>
       <c r="P12" t="n">
         <v>359.4805584342473</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>310.2115806865424</v>
       </c>
       <c r="L14" t="n">
-        <v>435.3196510695969</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M14" t="n">
-        <v>490.5887650540078</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N14" t="n">
-        <v>477.0413189206395</v>
+        <v>447.7908369070769</v>
       </c>
       <c r="O14" t="n">
         <v>397.6858938730111</v>
       </c>
       <c r="P14" t="n">
-        <v>277.6829449307864</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.74482471785655</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K15" t="n">
         <v>277.7543448650474</v>
       </c>
       <c r="L15" t="n">
-        <v>165.093478607833</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M15" t="n">
-        <v>562.0266431764519</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N15" t="n">
-        <v>590.4320211167075</v>
+        <v>128.54324806428</v>
       </c>
       <c r="O15" t="n">
         <v>463.8590080867565</v>
       </c>
       <c r="P15" t="n">
-        <v>359.4805584342471</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.04919017668342</v>
+        <v>60.04919017668345</v>
       </c>
       <c r="K16" t="n">
-        <v>164.2988139813557</v>
+        <v>164.2988139813558</v>
       </c>
       <c r="L16" t="n">
         <v>239.728955922072</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2188579261989</v>
+        <v>259.218857926199</v>
       </c>
       <c r="N16" t="n">
         <v>258.7629133314233</v>
@@ -35823,7 +35823,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225318</v>
+        <v>84.46361149225319</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>310.2115806865424</v>
       </c>
       <c r="L17" t="n">
-        <v>435.319651069597</v>
+        <v>253.2558305274016</v>
       </c>
       <c r="M17" t="n">
         <v>490.5887650540079</v>
       </c>
       <c r="N17" t="n">
-        <v>294.9774983784434</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O17" t="n">
         <v>397.6858938730111</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K18" t="n">
-        <v>99.29596121190275</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L18" t="n">
         <v>431.2966869788341</v>
@@ -35972,7 +35972,7 @@
         <v>562.026643176452</v>
       </c>
       <c r="N18" t="n">
-        <v>590.4320211167075</v>
+        <v>324.2288127457056</v>
       </c>
       <c r="O18" t="n">
         <v>463.8590080867565</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K20" t="n">
-        <v>310.2115806865424</v>
+        <v>128.1477601443471</v>
       </c>
       <c r="L20" t="n">
         <v>435.319651069597</v>
       </c>
       <c r="M20" t="n">
-        <v>426.3856689821273</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N20" t="n">
         <v>477.0413189206396</v>
@@ -36206,10 +36206,10 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M21" t="n">
-        <v>295.8234348054503</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N21" t="n">
-        <v>590.4320211167075</v>
+        <v>128.5432480642791</v>
       </c>
       <c r="O21" t="n">
         <v>463.8590080867565</v>
@@ -36218,7 +36218,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K23" t="n">
-        <v>246.0084846146619</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L23" t="n">
         <v>435.319651069597</v>
@@ -36373,7 +36373,7 @@
         <v>397.6858938730111</v>
       </c>
       <c r="P23" t="n">
-        <v>306.9334269443491</v>
+        <v>124.8696064021527</v>
       </c>
       <c r="Q23" t="n">
         <v>152.8133385286333</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.74482471785656</v>
+        <v>57.15273864426248</v>
       </c>
       <c r="K24" t="n">
         <v>277.7543448650474</v>
       </c>
       <c r="L24" t="n">
-        <v>431.2966869788341</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N24" t="n">
-        <v>128.5432480642796</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O24" t="n">
         <v>463.8590080867565</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.501646294817</v>
+        <v>220.5016462948169</v>
       </c>
       <c r="K26" t="n">
-        <v>412.8525025110438</v>
+        <v>412.8525025110437</v>
       </c>
       <c r="L26" t="n">
-        <v>441.1477573596167</v>
+        <v>537.9605728940983</v>
       </c>
       <c r="M26" t="n">
-        <v>593.2296868785091</v>
+        <v>593.229686878509</v>
       </c>
       <c r="N26" t="n">
-        <v>579.6822407451409</v>
+        <v>579.6822407451408</v>
       </c>
       <c r="O26" t="n">
-        <v>500.3268156975124</v>
+        <v>500.3268156975123</v>
       </c>
       <c r="P26" t="n">
-        <v>409.5743487688504</v>
+        <v>312.7615332343688</v>
       </c>
       <c r="Q26" t="n">
-        <v>255.4542603531346</v>
+        <v>255.4542603531345</v>
       </c>
       <c r="R26" t="n">
-        <v>46.31400565263098</v>
+        <v>46.31400565263095</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>277.7543448650475</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L27" t="n">
-        <v>431.2966869788342</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M27" t="n">
-        <v>562.026643176452</v>
+        <v>187.8826948418812</v>
       </c>
       <c r="N27" t="n">
-        <v>411.9736374635621</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O27" t="n">
-        <v>463.8590080867566</v>
+        <v>463.8590080867564</v>
       </c>
       <c r="P27" t="n">
-        <v>359.4805584342473</v>
+        <v>359.4805584342471</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.04919017668344</v>
+        <v>60.04919017668343</v>
       </c>
       <c r="K28" t="n">
-        <v>164.2988139813558</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L28" t="n">
-        <v>239.7289559220721</v>
+        <v>239.728955922072</v>
       </c>
       <c r="M28" t="n">
         <v>259.218857926199</v>
@@ -36832,19 +36832,19 @@
         <v>220.501646294817</v>
       </c>
       <c r="K29" t="n">
-        <v>412.8525025110437</v>
+        <v>362.3536926291926</v>
       </c>
       <c r="L29" t="n">
         <v>537.9605728940983</v>
       </c>
       <c r="M29" t="n">
-        <v>593.2296868785093</v>
+        <v>593.2296868785091</v>
       </c>
       <c r="N29" t="n">
         <v>579.6822407451409</v>
       </c>
       <c r="O29" t="n">
-        <v>403.5140001630308</v>
+        <v>500.3268156975124</v>
       </c>
       <c r="P29" t="n">
         <v>409.5743487688504</v>
@@ -36853,7 +36853,7 @@
         <v>255.4542603531346</v>
       </c>
       <c r="R29" t="n">
-        <v>46.31400565263096</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.74482471785659</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>277.7543448650475</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>431.2966869788342</v>
       </c>
       <c r="M30" t="n">
-        <v>562.0266431764521</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N30" t="n">
-        <v>128.5432480642791</v>
+        <v>494.0424176471833</v>
       </c>
       <c r="O30" t="n">
         <v>463.8590080867566</v>
@@ -37075,22 +37075,22 @@
         <v>540.5502769888183</v>
       </c>
       <c r="M32" t="n">
-        <v>595.8193909732291</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N32" t="n">
         <v>582.2719448398608</v>
       </c>
       <c r="O32" t="n">
-        <v>397.6858938730111</v>
+        <v>502.9165197922324</v>
       </c>
       <c r="P32" t="n">
-        <v>357.6402427300814</v>
+        <v>412.1640528635703</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.0439644478545</v>
+        <v>203.5201543143649</v>
       </c>
       <c r="R32" t="n">
-        <v>48.90370974735098</v>
+        <v>48.90370974735101</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>277.7543448650474</v>
@@ -37157,16 +37157,16 @@
         <v>562.026643176452</v>
       </c>
       <c r="N33" t="n">
-        <v>128.5432480642796</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O33" t="n">
-        <v>463.8590080867565</v>
+        <v>285.4006244336114</v>
       </c>
       <c r="P33" t="n">
         <v>359.4805584342472</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.6855646814262</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.63889427140345</v>
+        <v>62.63889427140348</v>
       </c>
       <c r="K34" t="n">
         <v>166.8885180760758</v>
       </c>
       <c r="L34" t="n">
-        <v>242.3186600167921</v>
+        <v>179.3244580155652</v>
       </c>
       <c r="M34" t="n">
         <v>261.808562020919</v>
@@ -37245,7 +37245,7 @@
         <v>197.6857514762872</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.05911358574701</v>
+        <v>87.05331558697323</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>277.7543448650474</v>
       </c>
       <c r="L36" t="n">
-        <v>431.2966869788341</v>
+        <v>328.8884723606534</v>
       </c>
       <c r="M36" t="n">
         <v>562.026643176452</v>
@@ -37397,10 +37397,10 @@
         <v>590.4320211167075</v>
       </c>
       <c r="O36" t="n">
-        <v>1.970235034328616</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P36" t="n">
-        <v>359.4805584342472</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>195.6855646814262</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.8607244703157</v>
+        <v>117.8607244703171</v>
       </c>
       <c r="K38" t="n">
         <v>310.2115806865424</v>
@@ -37622,7 +37622,7 @@
         <v>87.74482471785656</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L39" t="n">
         <v>431.2966869788341</v>
@@ -37631,7 +37631,7 @@
         <v>562.026643176452</v>
       </c>
       <c r="N39" t="n">
-        <v>590.4320211167075</v>
+        <v>128.5432480642793</v>
       </c>
       <c r="O39" t="n">
         <v>463.8590080867565</v>
@@ -37640,7 +37640,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.55113649404558</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>117.8607244703157</v>
       </c>
       <c r="K41" t="n">
-        <v>310.2115806865424</v>
+        <v>310.2115806865438</v>
       </c>
       <c r="L41" t="n">
         <v>435.319651069597</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K42" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>431.2966869788341</v>
@@ -37871,13 +37871,13 @@
         <v>590.4320211167075</v>
       </c>
       <c r="O42" t="n">
-        <v>463.8590080867565</v>
+        <v>279.7245798993756</v>
       </c>
       <c r="P42" t="n">
-        <v>181.0221747811022</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>89.62415290241664</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>193.873776707089</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L43" t="n">
         <v>137.0880340975708</v>
@@ -37950,13 +37950,13 @@
         <v>156.1219915069221</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1750864943191</v>
+        <v>164.4716920921377</v>
       </c>
       <c r="P43" t="n">
-        <v>148.1661524704543</v>
+        <v>224.6710101073004</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>114.0385742179864</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.8607244703152</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K44" t="n">
         <v>310.2115806865424</v>
@@ -38026,7 +38026,7 @@
         <v>490.5887650540079</v>
       </c>
       <c r="N44" t="n">
-        <v>477.0413189206396</v>
+        <v>477.041318920641</v>
       </c>
       <c r="O44" t="n">
         <v>397.6858938730111</v>
@@ -38096,13 +38096,13 @@
         <v>87.74482471785656</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L45" t="n">
         <v>431.2966869788341</v>
       </c>
       <c r="M45" t="n">
-        <v>562.026643176452</v>
+        <v>100.1378701240238</v>
       </c>
       <c r="N45" t="n">
         <v>590.4320211167075</v>
@@ -38114,7 +38114,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.55113649404558</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>74.77718742242556</v>
+        <v>61.65789215685452</v>
       </c>
       <c r="L46" t="n">
         <v>269.3039186478052</v>
       </c>
       <c r="M46" t="n">
-        <v>156.5779361016977</v>
+        <v>169.6972313672682</v>
       </c>
       <c r="N46" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1750864943191</v>
+        <v>265.3909710445536</v>
       </c>
       <c r="P46" t="n">
-        <v>224.6710101073003</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
